--- a/R/ISIN und Namen von SPI Unternehmen.xlsx
+++ b/R/ISIN und Namen von SPI Unternehmen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler_1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler_1/Desktop/websiteJuly2023/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A28F9-94BC-EC45-9EEA-F962AD02B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EE3114-CC79-8843-ABDE-3100745D0384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{FA608BB3-CB51-3742-9D70-C9BB02F2E9AA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{FA608BB3-CB51-3742-9D70-C9BB02F2E9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2180,7 +2179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2201,15 +2200,13 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2603,7 +2600,7 @@
       <c r="D2" s="3">
         <v>32.79</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="4">
         <v>-0.09</v>
       </c>
@@ -2619,7 +2616,7 @@
       <c r="J2" s="7">
         <v>5.91</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="18" t="s">
@@ -2643,7 +2640,7 @@
       <c r="D3" s="3">
         <v>33.29</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="4">
         <v>-0.27</v>
       </c>
@@ -2659,7 +2656,7 @@
       <c r="J3" s="7">
         <v>22.25</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="24"/>
       <c r="N3" s="18" t="s">
         <v>424</v>
       </c>
@@ -2681,7 +2678,7 @@
       <c r="D4" s="3">
         <v>23.08</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="4">
         <v>-0.04</v>
       </c>
@@ -2697,7 +2694,7 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -2721,7 +2718,7 @@
       <c r="D5" s="3">
         <v>23.46</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="4">
         <v>-0.17</v>
       </c>
@@ -2737,7 +2734,7 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="24"/>
       <c r="N5" s="18" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2756,7 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="4">
         <v>0</v>
       </c>
@@ -2775,7 +2772,7 @@
       <c r="J6" s="4">
         <v>-0.03</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="18" t="s">
@@ -2799,7 +2796,7 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="4">
         <v>-25</v>
       </c>
@@ -2815,7 +2812,7 @@
       <c r="J7" s="4">
         <v>-76.739999999999995</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="24"/>
       <c r="N7" s="18" t="s">
         <v>11</v>
       </c>
@@ -2836,7 +2833,7 @@
       <c r="D8" s="3">
         <v>0.08</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="7">
         <v>0</v>
       </c>
@@ -2852,7 +2849,7 @@
       <c r="J8" s="4">
         <v>-0.11</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N8" t="s">
@@ -2875,7 +2872,7 @@
       <c r="D9" s="3">
         <v>0.09</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="7">
         <v>2.59</v>
       </c>
@@ -2891,7 +2888,7 @@
       <c r="J9" s="4">
         <v>-55.45</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="24"/>
       <c r="N9" t="s">
         <v>15</v>
       </c>
@@ -2909,7 +2906,7 @@
       <c r="D10" s="3">
         <v>37.380000000000003</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="4">
         <v>-0.37</v>
       </c>
@@ -2925,7 +2922,7 @@
       <c r="J10" s="7">
         <v>6.01</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N10" t="s">
@@ -2945,7 +2942,7 @@
       <c r="D11" s="3">
         <v>38.340000000000003</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="4">
         <v>-0.97</v>
       </c>
@@ -2961,7 +2958,7 @@
       <c r="J11" s="7">
         <v>19.420000000000002</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="24"/>
       <c r="N11" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +2976,7 @@
       <c r="D12" s="3">
         <v>117</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="4">
         <v>-1</v>
       </c>
@@ -2995,7 +2992,7 @@
       <c r="J12" s="4">
         <v>-43</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="24" t="s">
         <v>2</v>
       </c>
       <c r="N12" t="s">
@@ -3015,7 +3012,7 @@
       <c r="D13" s="3">
         <v>117</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="4">
         <v>-0.85</v>
       </c>
@@ -3031,7 +3028,7 @@
       <c r="J13" s="4">
         <v>-27.39</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -3043,7 +3040,7 @@
       <c r="D14" s="3">
         <v>18.8</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -3059,7 +3056,7 @@
       <c r="J14" s="7">
         <v>0.7</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3073,7 +3070,7 @@
       <c r="D15" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -3089,7 +3086,7 @@
       <c r="J15" s="7">
         <v>3.85</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -3101,7 +3098,7 @@
       <c r="D16" s="3">
         <v>0.64</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3">
         <v>0</v>
       </c>
@@ -3117,7 +3114,7 @@
       <c r="J16" s="7">
         <v>0.1</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3131,7 +3128,7 @@
       <c r="D17" s="3">
         <v>0.64</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -3147,7 +3144,7 @@
       <c r="J17" s="7">
         <v>15.87</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -3159,7 +3156,7 @@
       <c r="D18" s="3">
         <v>73.62</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="4">
         <v>-0.32</v>
       </c>
@@ -3175,7 +3172,7 @@
       <c r="J18" s="7">
         <v>7.4</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3189,7 +3186,7 @@
       <c r="D19" s="3">
         <v>74.739999999999995</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="4">
         <v>-0.43</v>
       </c>
@@ -3205,7 +3202,7 @@
       <c r="J19" s="7">
         <v>11.23</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -3217,7 +3214,7 @@
       <c r="D20" s="3">
         <v>153.80000000000001</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="4">
         <v>-0.2</v>
       </c>
@@ -3233,7 +3230,7 @@
       <c r="J20" s="4">
         <v>-9.6</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3247,7 +3244,7 @@
       <c r="D21" s="3">
         <v>155.80000000000001</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="4">
         <v>-0.13</v>
       </c>
@@ -3263,7 +3260,7 @@
       <c r="J21" s="4">
         <v>-6.01</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -3275,7 +3272,7 @@
       <c r="D22" s="3">
         <v>211</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="7">
         <v>3.5</v>
       </c>
@@ -3291,7 +3288,7 @@
       <c r="J22" s="7">
         <v>39.5</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3305,7 +3302,7 @@
       <c r="D23" s="3">
         <v>215</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7">
         <v>1.68</v>
       </c>
@@ -3321,7 +3318,7 @@
       <c r="J23" s="7">
         <v>23.8</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -3333,7 +3330,7 @@
       <c r="D24" s="3">
         <v>14.38</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="4">
         <v>-0.28000000000000003</v>
       </c>
@@ -3349,7 +3346,7 @@
       <c r="J24" s="4">
         <v>-2.16</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3363,7 +3360,7 @@
       <c r="D25" s="3">
         <v>15.04</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="4">
         <v>-1.86</v>
       </c>
@@ -3379,7 +3376,7 @@
       <c r="J25" s="4">
         <v>-12.13</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
@@ -3391,7 +3388,7 @@
       <c r="D26" s="3">
         <v>5.95</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="4">
         <v>-0.13</v>
       </c>
@@ -3407,7 +3404,7 @@
       <c r="J26" s="4">
         <v>-1.32</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3421,7 +3418,7 @@
       <c r="D27" s="3">
         <v>6.35</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="4">
         <v>-2.12</v>
       </c>
@@ -3437,7 +3434,7 @@
       <c r="J27" s="4">
         <v>-18.079999999999998</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -3449,7 +3446,7 @@
       <c r="D28" s="3">
         <v>180</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="7">
         <v>0.5</v>
       </c>
@@ -3465,7 +3462,7 @@
       <c r="J28" s="7">
         <v>7</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3479,7 +3476,7 @@
       <c r="D29" s="3">
         <v>182.5</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="7">
         <v>0.28000000000000003</v>
       </c>
@@ -3495,7 +3492,7 @@
       <c r="J29" s="7">
         <v>3.93</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -3507,7 +3504,7 @@
       <c r="D30" s="3">
         <v>8.9700000000000006</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="4">
         <v>-0.03</v>
       </c>
@@ -3523,7 +3520,7 @@
       <c r="J30" s="4">
         <v>-3.71</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3537,7 +3534,7 @@
       <c r="D31" s="3">
         <v>9.25</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="4">
         <v>-0.33</v>
       </c>
@@ -3553,7 +3550,7 @@
       <c r="J31" s="4">
         <v>-29.4</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -3565,7 +3562,7 @@
       <c r="D32" s="3">
         <v>0.22</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="7">
         <v>0.06</v>
       </c>
@@ -3581,7 +3578,7 @@
       <c r="J32" s="4">
         <v>-0.34</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3595,7 +3592,7 @@
       <c r="D33" s="3">
         <v>0.22</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="7">
         <v>35.799999999999997</v>
       </c>
@@ -3611,7 +3608,7 @@
       <c r="J33" s="4">
         <v>-61.82</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -3623,7 +3620,7 @@
       <c r="D34" s="3">
         <v>1.35</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="4">
         <v>-0.01</v>
       </c>
@@ -3639,7 +3636,7 @@
       <c r="J34" s="7">
         <v>0.24</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3653,7 +3650,7 @@
       <c r="D35" s="3">
         <v>1.38</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="4">
         <v>-0.44</v>
       </c>
@@ -3669,7 +3666,7 @@
       <c r="J35" s="7">
         <v>22.06</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -3681,7 +3678,7 @@
       <c r="D36" s="3">
         <v>11.38</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="4">
         <v>-0.24</v>
       </c>
@@ -3697,7 +3694,7 @@
       <c r="J36" s="7">
         <v>5.26</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3711,7 +3708,7 @@
       <c r="D37" s="3">
         <v>11.74</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="4">
         <v>-2.0699999999999998</v>
       </c>
@@ -3727,7 +3724,7 @@
       <c r="J37" s="7">
         <v>81.680000000000007</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
@@ -3739,7 +3736,7 @@
       <c r="D38" s="3">
         <v>1.5</v>
       </c>
-      <c r="E38" s="20"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="7">
         <v>0.15</v>
       </c>
@@ -3755,7 +3752,7 @@
       <c r="J38" s="4">
         <v>-0.99</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3769,7 +3766,7 @@
       <c r="D39" s="3">
         <v>1.6</v>
       </c>
-      <c r="E39" s="20"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="7">
         <v>10.34</v>
       </c>
@@ -3785,7 +3782,7 @@
       <c r="J39" s="4">
         <v>-37.36</v>
       </c>
-      <c r="K39" s="21"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
@@ -3797,7 +3794,7 @@
       <c r="D40" s="3">
         <v>128.6</v>
       </c>
-      <c r="E40" s="20"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="4">
         <v>-2.6</v>
       </c>
@@ -3813,7 +3810,7 @@
       <c r="J40" s="7">
         <v>32.6</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3827,7 +3824,7 @@
       <c r="D41" s="3">
         <v>133</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="4">
         <v>-1.98</v>
       </c>
@@ -3843,7 +3840,7 @@
       <c r="J41" s="7">
         <v>30.35</v>
       </c>
-      <c r="K41" s="21"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -3855,7 +3852,7 @@
       <c r="D42" s="3">
         <v>80.650000000000006</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="4">
         <v>-0.3</v>
       </c>
@@ -3871,7 +3868,7 @@
       <c r="J42" s="7">
         <v>12.1</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3885,7 +3882,7 @@
       <c r="D43" s="3">
         <v>82.4</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="4">
         <v>-0.37</v>
       </c>
@@ -3901,7 +3898,7 @@
       <c r="J43" s="7">
         <v>18.14</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -3913,7 +3910,7 @@
       <c r="D44" s="3">
         <v>135.5</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="7">
         <v>2</v>
       </c>
@@ -3929,7 +3926,7 @@
       <c r="J44" s="4">
         <v>-18.600000000000001</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3943,7 +3940,7 @@
       <c r="D45" s="3">
         <v>137.19999999999999</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="7">
         <v>1.49</v>
       </c>
@@ -3959,7 +3956,7 @@
       <c r="J45" s="4">
         <v>-12.2</v>
       </c>
-      <c r="K45" s="21"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -3971,7 +3968,7 @@
       <c r="D46" s="3">
         <v>218</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="7">
         <v>1</v>
       </c>
@@ -3987,7 +3984,7 @@
       <c r="J46" s="7">
         <v>49.5</v>
       </c>
-      <c r="K46" s="21" t="s">
+      <c r="K46" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4001,7 +3998,7 @@
       <c r="D47" s="3">
         <v>222</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="7">
         <v>0.45</v>
       </c>
@@ -4017,7 +4014,7 @@
       <c r="J47" s="7">
         <v>29.03</v>
       </c>
-      <c r="K47" s="21"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
@@ -4029,7 +4026,7 @@
       <c r="D48" s="3">
         <v>51.5</v>
       </c>
-      <c r="E48" s="20"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="7">
         <v>1.5</v>
       </c>
@@ -4045,7 +4042,7 @@
       <c r="J48" s="4">
         <v>-1</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4059,7 +4056,7 @@
       <c r="D49" s="3">
         <v>51.5</v>
       </c>
-      <c r="E49" s="20"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="7">
         <v>3</v>
       </c>
@@ -4075,7 +4072,7 @@
       <c r="J49" s="4">
         <v>-1.87</v>
       </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
@@ -4087,7 +4084,7 @@
       <c r="D50" s="3">
         <v>96.4</v>
       </c>
-      <c r="E50" s="20"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="7">
         <v>0.65</v>
       </c>
@@ -4103,7 +4100,7 @@
       <c r="J50" s="7">
         <v>4.1500000000000004</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4117,7 +4114,7 @@
       <c r="D51" s="3">
         <v>96.9</v>
       </c>
-      <c r="E51" s="20"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="7">
         <v>0.68</v>
       </c>
@@ -4133,7 +4130,7 @@
       <c r="J51" s="7">
         <v>4.54</v>
       </c>
-      <c r="K51" s="21"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
@@ -4145,7 +4142,7 @@
       <c r="D52" s="8">
         <v>1546</v>
       </c>
-      <c r="E52" s="20"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="7">
         <v>9</v>
       </c>
@@ -4161,7 +4158,7 @@
       <c r="J52" s="4">
         <v>-551</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K52" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4175,7 +4172,7 @@
       <c r="D53" s="8">
         <v>1557</v>
       </c>
-      <c r="E53" s="20"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="7">
         <v>0.57999999999999996</v>
       </c>
@@ -4191,7 +4188,7 @@
       <c r="J53" s="4">
         <v>-26.34</v>
       </c>
-      <c r="K53" s="21"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -4206,7 +4203,7 @@
       <c r="D54" s="3">
         <v>890</v>
       </c>
-      <c r="E54" s="20"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -4222,7 +4219,7 @@
       <c r="J54" s="4">
         <v>-20</v>
       </c>
-      <c r="K54" s="21" t="s">
+      <c r="K54" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4236,7 +4233,7 @@
       <c r="D55" s="3">
         <v>894</v>
       </c>
-      <c r="E55" s="20"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="3">
         <v>0</v>
       </c>
@@ -4252,7 +4249,7 @@
       <c r="J55" s="4">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="K55" s="21"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -4265,7 +4262,7 @@
       <c r="D56" s="3">
         <v>47.35</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="7">
         <v>0.05</v>
       </c>
@@ -4281,7 +4278,7 @@
       <c r="J56" s="7">
         <v>7.8</v>
       </c>
-      <c r="K56" s="21" t="s">
+      <c r="K56" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4295,7 +4292,7 @@
       <c r="D57" s="3">
         <v>48.3</v>
       </c>
-      <c r="E57" s="20"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="7">
         <v>0.11</v>
       </c>
@@ -4311,7 +4308,7 @@
       <c r="J57" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="K57" s="21"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
@@ -4323,7 +4320,7 @@
       <c r="D58" s="3">
         <v>39.85</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="4">
         <v>-0.55000000000000004</v>
       </c>
@@ -4339,7 +4336,7 @@
       <c r="J58" s="4">
         <v>-19.149999999999999</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K58" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4353,7 +4350,7 @@
       <c r="D59" s="3">
         <v>40.6</v>
       </c>
-      <c r="E59" s="20"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="4">
         <v>-1.36</v>
       </c>
@@ -4369,7 +4366,7 @@
       <c r="J59" s="4">
         <v>-32.130000000000003</v>
       </c>
-      <c r="K59" s="21"/>
+      <c r="K59" s="24"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
@@ -4381,7 +4378,7 @@
       <c r="D60" s="3">
         <v>447.6</v>
       </c>
-      <c r="E60" s="20"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="4">
         <v>-0.8</v>
       </c>
@@ -4397,7 +4394,7 @@
       <c r="J60" s="7">
         <v>67</v>
       </c>
-      <c r="K60" s="21" t="s">
+      <c r="K60" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4411,7 +4408,7 @@
       <c r="D61" s="3">
         <v>458</v>
       </c>
-      <c r="E61" s="20"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="4">
         <v>-0.18</v>
       </c>
@@ -4427,7 +4424,7 @@
       <c r="J61" s="7">
         <v>17.63</v>
       </c>
-      <c r="K61" s="21"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
@@ -4439,7 +4436,7 @@
       <c r="D62" s="3">
         <v>264.5</v>
       </c>
-      <c r="E62" s="20"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="7">
         <v>1</v>
       </c>
@@ -4455,7 +4452,7 @@
       <c r="J62" s="7">
         <v>11</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="K62" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4469,7 +4466,7 @@
       <c r="D63" s="3">
         <v>268</v>
       </c>
-      <c r="E63" s="20"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="7">
         <v>0.38</v>
       </c>
@@ -4485,7 +4482,7 @@
       <c r="J63" s="7">
         <v>4.33</v>
       </c>
-      <c r="K63" s="21"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
@@ -4497,7 +4494,7 @@
       <c r="D64" s="3">
         <v>25.7</v>
       </c>
-      <c r="E64" s="20"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="4">
         <v>-0.2</v>
       </c>
@@ -4513,7 +4510,7 @@
       <c r="J64" s="4">
         <v>-5.9</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4527,7 +4524,7 @@
       <c r="D65" s="3">
         <v>26.05</v>
       </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="4">
         <v>-0.77</v>
       </c>
@@ -4543,7 +4540,7 @@
       <c r="J65" s="4">
         <v>-18.91</v>
       </c>
-      <c r="K65" s="21"/>
+      <c r="K65" s="24"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
@@ -4555,7 +4552,7 @@
       <c r="D66" s="3">
         <v>239</v>
       </c>
-      <c r="E66" s="20"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -4571,7 +4568,7 @@
       <c r="J66" s="7">
         <v>17.5</v>
       </c>
-      <c r="K66" s="21" t="s">
+      <c r="K66" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4585,7 +4582,7 @@
       <c r="D67" s="3">
         <v>242</v>
       </c>
-      <c r="E67" s="20"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="3">
         <v>0</v>
       </c>
@@ -4601,7 +4598,7 @@
       <c r="J67" s="7">
         <v>7.87</v>
       </c>
-      <c r="K67" s="21"/>
+      <c r="K67" s="24"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
@@ -4613,7 +4610,7 @@
       <c r="D68" s="3">
         <v>157.69999999999999</v>
       </c>
-      <c r="E68" s="20"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="7">
         <v>0.6</v>
       </c>
@@ -4629,7 +4626,7 @@
       <c r="J68" s="7">
         <v>37.1</v>
       </c>
-      <c r="K68" s="21" t="s">
+      <c r="K68" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4643,7 +4640,7 @@
       <c r="D69" s="3">
         <v>159.69999999999999</v>
       </c>
-      <c r="E69" s="20"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="7">
         <v>0.38</v>
       </c>
@@ -4659,7 +4656,7 @@
       <c r="J69" s="7">
         <v>32.090000000000003</v>
       </c>
-      <c r="K69" s="21"/>
+      <c r="K69" s="24"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
@@ -4671,7 +4668,7 @@
       <c r="D70" s="3">
         <v>200.5</v>
       </c>
-      <c r="E70" s="20"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="7">
         <v>1</v>
       </c>
@@ -4687,7 +4684,7 @@
       <c r="J70" s="4">
         <v>-3.5</v>
       </c>
-      <c r="K70" s="21" t="s">
+      <c r="K70" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4701,7 +4698,7 @@
       <c r="D71" s="3">
         <v>203.5</v>
       </c>
-      <c r="E71" s="20"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="7">
         <v>0.5</v>
       </c>
@@ -4717,7 +4714,7 @@
       <c r="J71" s="4">
         <v>-1.73</v>
       </c>
-      <c r="K71" s="21"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
@@ -4729,7 +4726,7 @@
       <c r="D72" s="3">
         <v>354.6</v>
       </c>
-      <c r="E72" s="20"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="4">
         <v>-2.8</v>
       </c>
@@ -4745,7 +4742,7 @@
       <c r="J72" s="7">
         <v>2.6</v>
       </c>
-      <c r="K72" s="21" t="s">
+      <c r="K72" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4759,7 +4756,7 @@
       <c r="D73" s="3">
         <v>363</v>
       </c>
-      <c r="E73" s="20"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="4">
         <v>-0.78</v>
       </c>
@@ -4775,7 +4772,7 @@
       <c r="J73" s="7">
         <v>0.74</v>
       </c>
-      <c r="K73" s="21"/>
+      <c r="K73" s="24"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -4787,7 +4784,7 @@
       <c r="D74" s="3">
         <v>496</v>
       </c>
-      <c r="E74" s="20"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="4">
         <v>-4</v>
       </c>
@@ -4803,7 +4800,7 @@
       <c r="J74" s="7">
         <v>74</v>
       </c>
-      <c r="K74" s="21" t="s">
+      <c r="K74" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4817,7 +4814,7 @@
       <c r="D75" s="3">
         <v>506</v>
       </c>
-      <c r="E75" s="20"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="4">
         <v>-0.8</v>
       </c>
@@ -4833,7 +4830,7 @@
       <c r="J75" s="7">
         <v>17.66</v>
       </c>
-      <c r="K75" s="21"/>
+      <c r="K75" s="24"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
@@ -4845,7 +4842,7 @@
       <c r="D76" s="3">
         <v>88.6</v>
       </c>
-      <c r="E76" s="20"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="4">
         <v>-1.7</v>
       </c>
@@ -4861,7 +4858,7 @@
       <c r="J76" s="7">
         <v>5.4</v>
       </c>
-      <c r="K76" s="21" t="s">
+      <c r="K76" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4875,7 +4872,7 @@
       <c r="D77" s="3">
         <v>89.9</v>
       </c>
-      <c r="E77" s="20"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="4">
         <v>-1.88</v>
       </c>
@@ -4891,7 +4888,7 @@
       <c r="J77" s="7">
         <v>6.57</v>
       </c>
-      <c r="K77" s="21"/>
+      <c r="K77" s="24"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
@@ -4903,7 +4900,7 @@
       <c r="D78" s="3">
         <v>820</v>
       </c>
-      <c r="E78" s="20"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="7">
         <v>15</v>
       </c>
@@ -4919,7 +4916,7 @@
       <c r="J78" s="7">
         <v>45</v>
       </c>
-      <c r="K78" s="21" t="s">
+      <c r="K78" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4933,7 +4930,7 @@
       <c r="D79" s="3">
         <v>835</v>
       </c>
-      <c r="E79" s="20"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="7">
         <v>1.83</v>
       </c>
@@ -4949,7 +4946,7 @@
       <c r="J79" s="7">
         <v>5.81</v>
       </c>
-      <c r="K79" s="21"/>
+      <c r="K79" s="24"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
@@ -4961,7 +4958,7 @@
       <c r="D80" s="3">
         <v>562</v>
       </c>
-      <c r="E80" s="20"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="4">
         <v>-15</v>
       </c>
@@ -4977,7 +4974,7 @@
       <c r="J80" s="4">
         <v>-79</v>
       </c>
-      <c r="K80" s="21" t="s">
+      <c r="K80" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4991,7 +4988,7 @@
       <c r="D81" s="3">
         <v>579</v>
       </c>
-      <c r="E81" s="20"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="4">
         <v>-2.6</v>
       </c>
@@ -5007,7 +5004,7 @@
       <c r="J81" s="4">
         <v>-12.14</v>
       </c>
-      <c r="K81" s="21"/>
+      <c r="K81" s="24"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
@@ -5019,7 +5016,7 @@
       <c r="D82" s="3">
         <v>31.3</v>
       </c>
-      <c r="E82" s="20"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="4">
         <v>-1.1499999999999999</v>
       </c>
@@ -5035,7 +5032,7 @@
       <c r="J82" s="4">
         <v>-12.5</v>
       </c>
-      <c r="K82" s="21" t="s">
+      <c r="K82" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5049,7 +5046,7 @@
       <c r="D83" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="E83" s="20"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="4">
         <v>-3.54</v>
       </c>
@@ -5065,7 +5062,7 @@
       <c r="J83" s="4">
         <v>-28.31</v>
       </c>
-      <c r="K83" s="21"/>
+      <c r="K83" s="24"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
@@ -5077,7 +5074,7 @@
       <c r="D84" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="E84" s="20"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="7">
         <v>0.05</v>
       </c>
@@ -5093,7 +5090,7 @@
       <c r="J84" s="4">
         <v>-5.85</v>
       </c>
-      <c r="K84" s="21" t="s">
+      <c r="K84" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5107,7 +5104,7 @@
       <c r="D85" s="3">
         <v>64.849999999999994</v>
       </c>
-      <c r="E85" s="20"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="7">
         <v>0.08</v>
       </c>
@@ -5123,7 +5120,7 @@
       <c r="J85" s="4">
         <v>-8.4499999999999993</v>
       </c>
-      <c r="K85" s="21"/>
+      <c r="K85" s="24"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
@@ -5135,7 +5132,7 @@
       <c r="D86" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E86" s="20"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="7">
         <v>0.2</v>
       </c>
@@ -5151,7 +5148,7 @@
       <c r="J86" s="4">
         <v>-0.18</v>
       </c>
-      <c r="K86" s="21" t="s">
+      <c r="K86" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5165,7 +5162,7 @@
       <c r="D87" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E87" s="20"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="7">
         <v>9.9</v>
       </c>
@@ -5181,7 +5178,7 @@
       <c r="J87" s="4">
         <v>-8.18</v>
       </c>
-      <c r="K87" s="21"/>
+      <c r="K87" s="24"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
@@ -5193,7 +5190,7 @@
       <c r="D88" s="3">
         <v>44.9</v>
       </c>
-      <c r="E88" s="20"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="7">
         <v>0.1</v>
       </c>
@@ -5209,7 +5206,7 @@
       <c r="J88" s="7">
         <v>1.2</v>
       </c>
-      <c r="K88" s="21" t="s">
+      <c r="K88" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5223,7 +5220,7 @@
       <c r="D89" s="3">
         <v>45</v>
       </c>
-      <c r="E89" s="20"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="7">
         <v>0.22</v>
       </c>
@@ -5239,7 +5236,7 @@
       <c r="J89" s="7">
         <v>2.74</v>
       </c>
-      <c r="K89" s="21"/>
+      <c r="K89" s="24"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
@@ -5251,7 +5248,7 @@
       <c r="D90" s="3">
         <v>13.66</v>
       </c>
-      <c r="E90" s="20"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="7">
         <v>0.17</v>
       </c>
@@ -5267,7 +5264,7 @@
       <c r="J90" s="4">
         <v>-3.2</v>
       </c>
-      <c r="K90" s="21" t="s">
+      <c r="K90" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5281,7 +5278,7 @@
       <c r="D91" s="3">
         <v>13.8</v>
       </c>
-      <c r="E91" s="20"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="7">
         <v>1.25</v>
       </c>
@@ -5297,7 +5294,7 @@
       <c r="J91" s="4">
         <v>-19.13</v>
       </c>
-      <c r="K91" s="21"/>
+      <c r="K91" s="24"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
@@ -5309,7 +5306,7 @@
       <c r="D92" s="3">
         <v>66.7</v>
       </c>
-      <c r="E92" s="20"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="7">
         <v>1</v>
       </c>
@@ -5325,7 +5322,7 @@
       <c r="J92" s="4">
         <v>-15.6</v>
       </c>
-      <c r="K92" s="21" t="s">
+      <c r="K92" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5339,7 +5336,7 @@
       <c r="D93" s="3">
         <v>68</v>
       </c>
-      <c r="E93" s="20"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="7">
         <v>1.49</v>
       </c>
@@ -5355,7 +5352,7 @@
       <c r="J93" s="4">
         <v>-18.57</v>
       </c>
-      <c r="K93" s="21"/>
+      <c r="K93" s="24"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
@@ -5367,7 +5364,7 @@
       <c r="D94" s="3">
         <v>228.2</v>
       </c>
-      <c r="E94" s="20"/>
+      <c r="E94" s="23"/>
       <c r="F94" s="7">
         <v>3</v>
       </c>
@@ -5383,7 +5380,7 @@
       <c r="J94" s="7">
         <v>47.6</v>
       </c>
-      <c r="K94" s="21" t="s">
+      <c r="K94" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5397,7 +5394,7 @@
       <c r="D95" s="3">
         <v>234</v>
       </c>
-      <c r="E95" s="20"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="7">
         <v>1.33</v>
       </c>
@@ -5413,7 +5410,7 @@
       <c r="J95" s="7">
         <v>27.2</v>
       </c>
-      <c r="K95" s="21"/>
+      <c r="K95" s="24"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
@@ -5425,7 +5422,7 @@
       <c r="D96" s="3">
         <v>118</v>
       </c>
-      <c r="E96" s="20"/>
+      <c r="E96" s="23"/>
       <c r="F96" s="4">
         <v>-1</v>
       </c>
@@ -5441,7 +5438,7 @@
       <c r="J96" s="7">
         <v>17.010000000000002</v>
       </c>
-      <c r="K96" s="21" t="s">
+      <c r="K96" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5455,7 +5452,7 @@
       <c r="D97" s="3">
         <v>119</v>
       </c>
-      <c r="E97" s="20"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="4">
         <v>-0.84</v>
       </c>
@@ -5471,7 +5468,7 @@
       <c r="J97" s="7">
         <v>16.84</v>
       </c>
-      <c r="K97" s="21"/>
+      <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
@@ -5483,7 +5480,7 @@
       <c r="D98" s="3">
         <v>123.9</v>
       </c>
-      <c r="E98" s="20"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="7">
         <v>0.5</v>
       </c>
@@ -5499,7 +5496,7 @@
       <c r="J98" s="7">
         <v>14.1</v>
       </c>
-      <c r="K98" s="21" t="s">
+      <c r="K98" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5513,7 +5510,7 @@
       <c r="D99" s="3">
         <v>125.3</v>
       </c>
-      <c r="E99" s="20"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="7">
         <v>0.4</v>
       </c>
@@ -5529,7 +5526,7 @@
       <c r="J99" s="7">
         <v>12.92</v>
       </c>
-      <c r="K99" s="21"/>
+      <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
@@ -5541,7 +5538,7 @@
       <c r="D100" s="3">
         <v>63.4</v>
       </c>
-      <c r="E100" s="20"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5557,7 +5554,7 @@
       <c r="J100" s="7">
         <v>2</v>
       </c>
-      <c r="K100" s="21" t="s">
+      <c r="K100" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5571,7 +5568,7 @@
       <c r="D101" s="3">
         <v>63.8</v>
       </c>
-      <c r="E101" s="20"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5587,7 +5584,7 @@
       <c r="J101" s="7">
         <v>3.25</v>
       </c>
-      <c r="K101" s="21"/>
+      <c r="K101" s="24"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
@@ -5599,7 +5596,7 @@
       <c r="D102" s="3">
         <v>43.25</v>
       </c>
-      <c r="E102" s="20"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="7">
         <v>0.65</v>
       </c>
@@ -5615,7 +5612,7 @@
       <c r="J102" s="4">
         <v>-8.9499999999999993</v>
       </c>
-      <c r="K102" s="21" t="s">
+      <c r="K102" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5629,7 +5626,7 @@
       <c r="D103" s="3">
         <v>44.5</v>
       </c>
-      <c r="E103" s="20"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="7">
         <v>1.49</v>
       </c>
@@ -5645,7 +5642,7 @@
       <c r="J103" s="4">
         <v>-17.28</v>
       </c>
-      <c r="K103" s="21"/>
+      <c r="K103" s="24"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
@@ -5657,7 +5654,7 @@
       <c r="D104" s="3">
         <v>86.8</v>
       </c>
-      <c r="E104" s="20"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3">
         <v>0</v>
       </c>
@@ -5673,7 +5670,7 @@
       <c r="J104" s="7">
         <v>12</v>
       </c>
-      <c r="K104" s="21" t="s">
+      <c r="K104" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5687,7 +5684,7 @@
       <c r="D105" s="3">
         <v>86.8</v>
       </c>
-      <c r="E105" s="20"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3">
         <v>0</v>
       </c>
@@ -5703,7 +5700,7 @@
       <c r="J105" s="7">
         <v>16.13</v>
       </c>
-      <c r="K105" s="21"/>
+      <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
@@ -5715,7 +5712,7 @@
       <c r="D106" s="3">
         <v>50</v>
       </c>
-      <c r="E106" s="20"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="7">
         <v>0.2</v>
       </c>
@@ -5731,7 +5728,7 @@
       <c r="J106" s="4">
         <v>-8</v>
       </c>
-      <c r="K106" s="21" t="s">
+      <c r="K106" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5745,7 +5742,7 @@
       <c r="D107" s="3">
         <v>50</v>
       </c>
-      <c r="E107" s="20"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="7">
         <v>0.4</v>
       </c>
@@ -5761,7 +5758,7 @@
       <c r="J107" s="4">
         <v>-13.79</v>
       </c>
-      <c r="K107" s="21"/>
+      <c r="K107" s="24"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
@@ -5773,7 +5770,7 @@
       <c r="D108" s="3">
         <v>187</v>
       </c>
-      <c r="E108" s="20"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="7">
         <v>2.8</v>
       </c>
@@ -5789,7 +5786,7 @@
       <c r="J108" s="4">
         <v>-47.9</v>
       </c>
-      <c r="K108" s="21" t="s">
+      <c r="K108" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5803,7 +5800,7 @@
       <c r="D109" s="3">
         <v>190</v>
       </c>
-      <c r="E109" s="20"/>
+      <c r="E109" s="23"/>
       <c r="F109" s="7">
         <v>1.5</v>
       </c>
@@ -5819,7 +5816,7 @@
       <c r="J109" s="4">
         <v>-21.53</v>
       </c>
-      <c r="K109" s="21"/>
+      <c r="K109" s="24"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
@@ -5831,7 +5828,7 @@
       <c r="D110" s="3">
         <v>67</v>
       </c>
-      <c r="E110" s="20"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="4">
         <v>-0.3</v>
       </c>
@@ -5847,7 +5844,7 @@
       <c r="J110" s="4">
         <v>-8</v>
       </c>
-      <c r="K110" s="21" t="s">
+      <c r="K110" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5861,7 +5858,7 @@
       <c r="D111" s="3">
         <v>68</v>
       </c>
-      <c r="E111" s="20"/>
+      <c r="E111" s="23"/>
       <c r="F111" s="4">
         <v>-0.45</v>
       </c>
@@ -5877,7 +5874,7 @@
       <c r="J111" s="4">
         <v>-10.62</v>
       </c>
-      <c r="K111" s="21"/>
+      <c r="K111" s="24"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
@@ -5889,7 +5886,7 @@
       <c r="D112" s="3">
         <v>414</v>
       </c>
-      <c r="E112" s="20"/>
+      <c r="E112" s="23"/>
       <c r="F112" s="4">
         <v>-12</v>
       </c>
@@ -5905,7 +5902,7 @@
       <c r="J112" s="4">
         <v>-19</v>
       </c>
-      <c r="K112" s="21" t="s">
+      <c r="K112" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5919,7 +5916,7 @@
       <c r="D113" s="3">
         <v>433</v>
       </c>
-      <c r="E113" s="20"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="4">
         <v>-2.81</v>
       </c>
@@ -5935,7 +5932,7 @@
       <c r="J113" s="4">
         <v>-4.38</v>
       </c>
-      <c r="K113" s="21"/>
+      <c r="K113" s="24"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
@@ -5947,7 +5944,7 @@
       <c r="D114" s="3">
         <v>213</v>
       </c>
-      <c r="E114" s="20"/>
+      <c r="E114" s="23"/>
       <c r="F114" s="4">
         <v>-0.5</v>
       </c>
@@ -5963,7 +5960,7 @@
       <c r="J114" s="4">
         <v>-18</v>
       </c>
-      <c r="K114" s="21" t="s">
+      <c r="K114" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5977,7 +5974,7 @@
       <c r="D115" s="3">
         <v>219.5</v>
       </c>
-      <c r="E115" s="20"/>
+      <c r="E115" s="23"/>
       <c r="F115" s="4">
         <v>-0.23</v>
       </c>
@@ -5993,7 +5990,7 @@
       <c r="J115" s="4">
         <v>-7.58</v>
       </c>
-      <c r="K115" s="21"/>
+      <c r="K115" s="24"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
@@ -6005,7 +6002,7 @@
       <c r="D116" s="3">
         <v>39.380000000000003</v>
       </c>
-      <c r="E116" s="20"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="4">
         <v>-0.59</v>
       </c>
@@ -6021,7 +6018,7 @@
       <c r="J116" s="7">
         <v>3.49</v>
       </c>
-      <c r="K116" s="21" t="s">
+      <c r="K116" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6035,7 +6032,7 @@
       <c r="D117" s="3">
         <v>40.520000000000003</v>
       </c>
-      <c r="E117" s="20"/>
+      <c r="E117" s="23"/>
       <c r="F117" s="4">
         <v>-1.47</v>
       </c>
@@ -6051,7 +6048,7 @@
       <c r="J117" s="7">
         <v>9.4600000000000009</v>
       </c>
-      <c r="K117" s="21"/>
+      <c r="K117" s="24"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
@@ -6063,7 +6060,7 @@
       <c r="D118" s="3">
         <v>111</v>
       </c>
-      <c r="E118" s="20"/>
+      <c r="E118" s="23"/>
       <c r="F118" s="3">
         <v>0</v>
       </c>
@@ -6079,7 +6076,7 @@
       <c r="J118" s="4">
         <v>-8.5</v>
       </c>
-      <c r="K118" s="21" t="s">
+      <c r="K118" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6093,7 +6090,7 @@
       <c r="D119" s="3">
         <v>111</v>
       </c>
-      <c r="E119" s="20"/>
+      <c r="E119" s="23"/>
       <c r="F119" s="3">
         <v>0</v>
       </c>
@@ -6109,7 +6106,7 @@
       <c r="J119" s="4">
         <v>-7.11</v>
       </c>
-      <c r="K119" s="21"/>
+      <c r="K119" s="24"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
@@ -6121,7 +6118,7 @@
       <c r="D120" s="3">
         <v>9.92</v>
       </c>
-      <c r="E120" s="20"/>
+      <c r="E120" s="23"/>
       <c r="F120" s="4">
         <v>-0.04</v>
       </c>
@@ -6137,7 +6134,7 @@
       <c r="J120" s="7">
         <v>1.98</v>
       </c>
-      <c r="K120" s="21" t="s">
+      <c r="K120" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6151,7 +6148,7 @@
       <c r="D121" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="E121" s="20"/>
+      <c r="E121" s="23"/>
       <c r="F121" s="4">
         <v>-0.4</v>
       </c>
@@ -6167,7 +6164,7 @@
       <c r="J121" s="7">
         <v>24.63</v>
       </c>
-      <c r="K121" s="21"/>
+      <c r="K121" s="24"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
@@ -6179,7 +6176,7 @@
       <c r="D122" s="3">
         <v>0</v>
       </c>
-      <c r="E122" s="20"/>
+      <c r="E122" s="23"/>
       <c r="F122" s="3">
         <v>0</v>
       </c>
@@ -6195,7 +6192,7 @@
       <c r="J122" s="7">
         <v>60</v>
       </c>
-      <c r="K122" s="21" t="s">
+      <c r="K122" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6209,7 +6206,7 @@
       <c r="D123" s="3">
         <v>0</v>
       </c>
-      <c r="E123" s="20"/>
+      <c r="E123" s="23"/>
       <c r="F123" s="3">
         <v>0</v>
       </c>
@@ -6225,7 +6222,7 @@
       <c r="J123" s="7">
         <v>6.32</v>
       </c>
-      <c r="K123" s="21"/>
+      <c r="K123" s="24"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
@@ -6237,7 +6234,7 @@
       <c r="D124" s="3">
         <v>940</v>
       </c>
-      <c r="E124" s="20"/>
+      <c r="E124" s="23"/>
       <c r="F124" s="7">
         <v>14</v>
       </c>
@@ -6253,7 +6250,7 @@
       <c r="J124" s="7">
         <v>83</v>
       </c>
-      <c r="K124" s="21" t="s">
+      <c r="K124" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6267,7 +6264,7 @@
       <c r="D125" s="3">
         <v>955</v>
       </c>
-      <c r="E125" s="20"/>
+      <c r="E125" s="23"/>
       <c r="F125" s="7">
         <v>1.49</v>
       </c>
@@ -6283,7 +6280,7 @@
       <c r="J125" s="7">
         <v>9.67</v>
       </c>
-      <c r="K125" s="21"/>
+      <c r="K125" s="24"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
@@ -6295,7 +6292,7 @@
       <c r="D126" s="3">
         <v>651.5</v>
       </c>
-      <c r="E126" s="20"/>
+      <c r="E126" s="23"/>
       <c r="F126" s="7">
         <v>1.5</v>
       </c>
@@ -6311,7 +6308,7 @@
       <c r="J126" s="4">
         <v>-59.5</v>
       </c>
-      <c r="K126" s="21" t="s">
+      <c r="K126" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6325,7 +6322,7 @@
       <c r="D127" s="3">
         <v>659</v>
       </c>
-      <c r="E127" s="20"/>
+      <c r="E127" s="23"/>
       <c r="F127" s="7">
         <v>0.23</v>
       </c>
@@ -6341,7 +6338,7 @@
       <c r="J127" s="4">
         <v>-8.36</v>
       </c>
-      <c r="K127" s="21"/>
+      <c r="K127" s="24"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
@@ -6353,7 +6350,7 @@
       <c r="D128" s="3">
         <v>62.2</v>
       </c>
-      <c r="E128" s="20"/>
+      <c r="E128" s="23"/>
       <c r="F128" s="7">
         <v>0.4</v>
       </c>
@@ -6369,7 +6366,7 @@
       <c r="J128" s="4">
         <v>-4.3</v>
       </c>
-      <c r="K128" s="21" t="s">
+      <c r="K128" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6383,7 +6380,7 @@
       <c r="D129" s="3">
         <v>62.6</v>
       </c>
-      <c r="E129" s="20"/>
+      <c r="E129" s="23"/>
       <c r="F129" s="7">
         <v>0.64</v>
       </c>
@@ -6399,7 +6396,7 @@
       <c r="J129" s="4">
         <v>-6.47</v>
       </c>
-      <c r="K129" s="21"/>
+      <c r="K129" s="24"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
@@ -6411,7 +6408,7 @@
       <c r="D130" s="3">
         <v>3</v>
       </c>
-      <c r="E130" s="20"/>
+      <c r="E130" s="23"/>
       <c r="F130" s="4">
         <v>-0.3</v>
       </c>
@@ -6427,7 +6424,7 @@
       <c r="J130" s="4">
         <v>-21.21</v>
       </c>
-      <c r="K130" s="21" t="s">
+      <c r="K130" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6441,7 +6438,7 @@
       <c r="D131" s="3">
         <v>3.88</v>
       </c>
-      <c r="E131" s="20"/>
+      <c r="E131" s="23"/>
       <c r="F131" s="4">
         <v>-8.11</v>
       </c>
@@ -6457,7 +6454,7 @@
       <c r="J131" s="4">
         <v>-85.18</v>
       </c>
-      <c r="K131" s="21"/>
+      <c r="K131" s="24"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
@@ -6469,7 +6466,7 @@
       <c r="D132" s="3">
         <v>22.7</v>
       </c>
-      <c r="E132" s="20"/>
+      <c r="E132" s="23"/>
       <c r="F132" s="4">
         <v>-0.35</v>
       </c>
@@ -6485,7 +6482,7 @@
       <c r="J132" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K132" s="21" t="s">
+      <c r="K132" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6499,7 +6496,7 @@
       <c r="D133" s="3">
         <v>23.1</v>
       </c>
-      <c r="E133" s="20"/>
+      <c r="E133" s="23"/>
       <c r="F133" s="4">
         <v>-1.52</v>
       </c>
@@ -6515,7 +6512,7 @@
       <c r="J133" s="7">
         <v>11.22</v>
       </c>
-      <c r="K133" s="21"/>
+      <c r="K133" s="24"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
@@ -6527,7 +6524,7 @@
       <c r="D134" s="3">
         <v>174.3</v>
       </c>
-      <c r="E134" s="20"/>
+      <c r="E134" s="23"/>
       <c r="F134" s="4">
         <v>-0.2</v>
       </c>
@@ -6543,7 +6540,7 @@
       <c r="J134" s="7">
         <v>14.7</v>
       </c>
-      <c r="K134" s="21" t="s">
+      <c r="K134" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6557,7 +6554,7 @@
       <c r="D135" s="3">
         <v>176.1</v>
       </c>
-      <c r="E135" s="20"/>
+      <c r="E135" s="23"/>
       <c r="F135" s="4">
         <v>-0.11</v>
       </c>
@@ -6573,7 +6570,7 @@
       <c r="J135" s="7">
         <v>9.15</v>
       </c>
-      <c r="K135" s="21"/>
+      <c r="K135" s="24"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
@@ -6585,7 +6582,7 @@
       <c r="D136" s="8">
         <v>1146</v>
       </c>
-      <c r="E136" s="20"/>
+      <c r="E136" s="23"/>
       <c r="F136" s="7">
         <v>10</v>
       </c>
@@ -6601,7 +6598,7 @@
       <c r="J136" s="4">
         <v>-120</v>
       </c>
-      <c r="K136" s="21" t="s">
+      <c r="K136" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6615,7 +6612,7 @@
       <c r="D137" s="8">
         <v>1154</v>
       </c>
-      <c r="E137" s="20"/>
+      <c r="E137" s="23"/>
       <c r="F137" s="7">
         <v>0.88</v>
       </c>
@@ -6631,7 +6628,7 @@
       <c r="J137" s="4">
         <v>-9.6</v>
       </c>
-      <c r="K137" s="21"/>
+      <c r="K137" s="24"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
@@ -6643,7 +6640,7 @@
       <c r="D138" s="3">
         <v>16.45</v>
       </c>
-      <c r="E138" s="20"/>
+      <c r="E138" s="23"/>
       <c r="F138" s="3">
         <v>0</v>
       </c>
@@ -6659,7 +6656,7 @@
       <c r="J138" s="4">
         <v>-0.15</v>
       </c>
-      <c r="K138" s="21" t="s">
+      <c r="K138" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6673,7 +6670,7 @@
       <c r="D139" s="3">
         <v>16.55</v>
       </c>
-      <c r="E139" s="20"/>
+      <c r="E139" s="23"/>
       <c r="F139" s="3">
         <v>0</v>
       </c>
@@ -6689,7 +6686,7 @@
       <c r="J139" s="4">
         <v>-0.9</v>
       </c>
-      <c r="K139" s="21"/>
+      <c r="K139" s="24"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
@@ -6701,7 +6698,7 @@
       <c r="D140" s="3">
         <v>69.099999999999994</v>
       </c>
-      <c r="E140" s="20"/>
+      <c r="E140" s="23"/>
       <c r="F140" s="4">
         <v>-0.2</v>
       </c>
@@ -6717,7 +6714,7 @@
       <c r="J140" s="4">
         <v>-0.95</v>
       </c>
-      <c r="K140" s="21" t="s">
+      <c r="K140" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6731,7 +6728,7 @@
       <c r="D141" s="3">
         <v>69.8</v>
       </c>
-      <c r="E141" s="20"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="4">
         <v>-0.28999999999999998</v>
       </c>
@@ -6747,7 +6744,7 @@
       <c r="J141" s="4">
         <v>-1.34</v>
       </c>
-      <c r="K141" s="21"/>
+      <c r="K141" s="24"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
@@ -6759,7 +6756,7 @@
       <c r="D142" s="3">
         <v>0.43</v>
       </c>
-      <c r="E142" s="20"/>
+      <c r="E142" s="23"/>
       <c r="F142" s="7">
         <v>0.04</v>
       </c>
@@ -6775,7 +6772,7 @@
       <c r="J142" s="4">
         <v>-0.49</v>
       </c>
-      <c r="K142" s="21" t="s">
+      <c r="K142" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6789,7 +6786,7 @@
       <c r="D143" s="3">
         <v>0.5</v>
       </c>
-      <c r="E143" s="20"/>
+      <c r="E143" s="23"/>
       <c r="F143" s="7">
         <v>9.6</v>
       </c>
@@ -6805,7 +6802,7 @@
       <c r="J143" s="4">
         <v>-49.9</v>
       </c>
-      <c r="K143" s="21"/>
+      <c r="K143" s="24"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
@@ -6817,7 +6814,7 @@
       <c r="D144" s="3">
         <v>442.9</v>
       </c>
-      <c r="E144" s="20"/>
+      <c r="E144" s="23"/>
       <c r="F144" s="3">
         <v>0</v>
       </c>
@@ -6833,7 +6830,7 @@
       <c r="J144" s="4">
         <v>-32.4</v>
       </c>
-      <c r="K144" s="21" t="s">
+      <c r="K144" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6847,7 +6844,7 @@
       <c r="D145" s="3">
         <v>450.5</v>
       </c>
-      <c r="E145" s="20"/>
+      <c r="E145" s="23"/>
       <c r="F145" s="3">
         <v>0</v>
       </c>
@@ -6863,7 +6860,7 @@
       <c r="J145" s="4">
         <v>-6.84</v>
       </c>
-      <c r="K145" s="21"/>
+      <c r="K145" s="24"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
@@ -6875,7 +6872,7 @@
       <c r="D146" s="3">
         <v>56</v>
       </c>
-      <c r="E146" s="20"/>
+      <c r="E146" s="23"/>
       <c r="F146" s="4">
         <v>-0.5</v>
       </c>
@@ -6891,7 +6888,7 @@
       <c r="J146" s="7">
         <v>1.25</v>
       </c>
-      <c r="K146" s="21" t="s">
+      <c r="K146" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6905,7 +6902,7 @@
       <c r="D147" s="3">
         <v>57.5</v>
       </c>
-      <c r="E147" s="20"/>
+      <c r="E147" s="23"/>
       <c r="F147" s="4">
         <v>-0.88</v>
       </c>
@@ -6921,7 +6918,7 @@
       <c r="J147" s="7">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K147" s="21"/>
+      <c r="K147" s="24"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
@@ -6933,7 +6930,7 @@
       <c r="D148" s="8">
         <v>2824</v>
       </c>
-      <c r="E148" s="20"/>
+      <c r="E148" s="23"/>
       <c r="F148" s="7">
         <v>40</v>
       </c>
@@ -6949,7 +6946,7 @@
       <c r="J148" s="4">
         <v>-539</v>
       </c>
-      <c r="K148" s="21" t="s">
+      <c r="K148" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6963,7 +6960,7 @@
       <c r="D149" s="8">
         <v>2869</v>
       </c>
-      <c r="E149" s="20"/>
+      <c r="E149" s="23"/>
       <c r="F149" s="7">
         <v>1.43</v>
       </c>
@@ -6979,7 +6976,7 @@
       <c r="J149" s="4">
         <v>-16.440000000000001</v>
       </c>
-      <c r="K149" s="21"/>
+      <c r="K149" s="24"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
@@ -6991,7 +6988,7 @@
       <c r="D150" s="3">
         <v>23.7</v>
       </c>
-      <c r="E150" s="20"/>
+      <c r="E150" s="23"/>
       <c r="F150" s="3">
         <v>0</v>
       </c>
@@ -7007,7 +7004,7 @@
       <c r="J150" s="4">
         <v>-1.3</v>
       </c>
-      <c r="K150" s="21" t="s">
+      <c r="K150" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7021,7 +7018,7 @@
       <c r="D151" s="3">
         <v>24</v>
       </c>
-      <c r="E151" s="20"/>
+      <c r="E151" s="23"/>
       <c r="F151" s="3">
         <v>0</v>
       </c>
@@ -7037,7 +7034,7 @@
       <c r="J151" s="4">
         <v>-5.12</v>
       </c>
-      <c r="K151" s="21"/>
+      <c r="K151" s="24"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
@@ -7049,7 +7046,7 @@
       <c r="D152" s="8">
         <v>1635</v>
       </c>
-      <c r="E152" s="20"/>
+      <c r="E152" s="23"/>
       <c r="F152" s="4">
         <v>-5</v>
       </c>
@@ -7065,7 +7062,7 @@
       <c r="J152" s="4">
         <v>-25</v>
       </c>
-      <c r="K152" s="21" t="s">
+      <c r="K152" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7079,7 +7076,7 @@
       <c r="D153" s="8">
         <v>1655</v>
       </c>
-      <c r="E153" s="20"/>
+      <c r="E153" s="23"/>
       <c r="F153" s="4">
         <v>-0.3</v>
       </c>
@@ -7095,7 +7092,7 @@
       <c r="J153" s="4">
         <v>-1.51</v>
       </c>
-      <c r="K153" s="21"/>
+      <c r="K153" s="24"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
@@ -7107,7 +7104,7 @@
       <c r="D154" s="3">
         <v>278</v>
       </c>
-      <c r="E154" s="20"/>
+      <c r="E154" s="23"/>
       <c r="F154" s="7">
         <v>2</v>
       </c>
@@ -7123,7 +7120,7 @@
       <c r="J154" s="4">
         <v>-56</v>
       </c>
-      <c r="K154" s="21" t="s">
+      <c r="K154" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7137,7 +7134,7 @@
       <c r="D155" s="3">
         <v>280</v>
       </c>
-      <c r="E155" s="20"/>
+      <c r="E155" s="23"/>
       <c r="F155" s="7">
         <v>0.72</v>
       </c>
@@ -7153,7 +7150,7 @@
       <c r="J155" s="4">
         <v>-16.47</v>
       </c>
-      <c r="K155" s="21"/>
+      <c r="K155" s="24"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
@@ -7165,7 +7162,7 @@
       <c r="D156" s="3">
         <v>85.1</v>
       </c>
-      <c r="E156" s="20"/>
+      <c r="E156" s="23"/>
       <c r="F156" s="3">
         <v>0</v>
       </c>
@@ -7181,7 +7178,7 @@
       <c r="J156" s="4">
         <v>-15.8</v>
       </c>
-      <c r="K156" s="21" t="s">
+      <c r="K156" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7195,7 +7192,7 @@
       <c r="D157" s="3">
         <v>89.1</v>
       </c>
-      <c r="E157" s="20"/>
+      <c r="E157" s="23"/>
       <c r="F157" s="3">
         <v>0</v>
       </c>
@@ -7211,7 +7208,7 @@
       <c r="J157" s="4">
         <v>-15.8</v>
       </c>
-      <c r="K157" s="21"/>
+      <c r="K157" s="24"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
@@ -7223,7 +7220,7 @@
       <c r="D158" s="3">
         <v>130.19999999999999</v>
       </c>
-      <c r="E158" s="20"/>
+      <c r="E158" s="23"/>
       <c r="F158" s="7">
         <v>1.2</v>
       </c>
@@ -7239,7 +7236,7 @@
       <c r="J158" s="7">
         <v>24.1</v>
       </c>
-      <c r="K158" s="21" t="s">
+      <c r="K158" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7253,7 +7250,7 @@
       <c r="D159" s="3">
         <v>132.5</v>
       </c>
-      <c r="E159" s="20"/>
+      <c r="E159" s="23"/>
       <c r="F159" s="7">
         <v>0.92</v>
       </c>
@@ -7269,7 +7266,7 @@
       <c r="J159" s="7">
         <v>22.38</v>
       </c>
-      <c r="K159" s="21"/>
+      <c r="K159" s="24"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
@@ -7281,7 +7278,7 @@
       <c r="D160" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E160" s="20"/>
+      <c r="E160" s="23"/>
       <c r="F160" s="4">
         <v>-1.8</v>
       </c>
@@ -7297,7 +7294,7 @@
       <c r="J160" s="4">
         <v>-4.8</v>
       </c>
-      <c r="K160" s="21" t="s">
+      <c r="K160" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7311,7 +7308,7 @@
       <c r="D161" s="3">
         <v>78.2</v>
       </c>
-      <c r="E161" s="20"/>
+      <c r="E161" s="23"/>
       <c r="F161" s="4">
         <v>-2.2799999999999998</v>
       </c>
@@ -7327,7 +7324,7 @@
       <c r="J161" s="4">
         <v>-5.67</v>
       </c>
-      <c r="K161" s="21"/>
+      <c r="K161" s="24"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
@@ -7339,7 +7336,7 @@
       <c r="D162" s="3">
         <v>11.5</v>
       </c>
-      <c r="E162" s="20"/>
+      <c r="E162" s="23"/>
       <c r="F162" s="3">
         <v>0</v>
       </c>
@@ -7355,7 +7352,7 @@
       <c r="J162" s="4">
         <v>-13.2</v>
       </c>
-      <c r="K162" s="21" t="s">
+      <c r="K162" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7369,7 +7366,7 @@
       <c r="D163" s="3">
         <v>11.5</v>
       </c>
-      <c r="E163" s="20"/>
+      <c r="E163" s="23"/>
       <c r="F163" s="3">
         <v>0</v>
       </c>
@@ -7385,7 +7382,7 @@
       <c r="J163" s="4">
         <v>-52.8</v>
       </c>
-      <c r="K163" s="21"/>
+      <c r="K163" s="24"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
@@ -7397,7 +7394,7 @@
       <c r="D164" s="3">
         <v>22.6</v>
       </c>
-      <c r="E164" s="20"/>
+      <c r="E164" s="23"/>
       <c r="F164" s="7">
         <v>2.8</v>
       </c>
@@ -7413,7 +7410,7 @@
       <c r="J164" s="4">
         <v>-14.7</v>
       </c>
-      <c r="K164" s="21" t="s">
+      <c r="K164" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7427,7 +7424,7 @@
       <c r="D165" s="3">
         <v>25</v>
       </c>
-      <c r="E165" s="20"/>
+      <c r="E165" s="23"/>
       <c r="F165" s="7">
         <v>12.61</v>
       </c>
@@ -7443,7 +7440,7 @@
       <c r="J165" s="4">
         <v>-39.840000000000003</v>
       </c>
-      <c r="K165" s="21"/>
+      <c r="K165" s="24"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
@@ -7455,7 +7452,7 @@
       <c r="D166" s="3">
         <v>57.2</v>
       </c>
-      <c r="E166" s="20"/>
+      <c r="E166" s="23"/>
       <c r="F166" s="4">
         <v>-0.4</v>
       </c>
@@ -7471,7 +7468,7 @@
       <c r="J166" s="7">
         <v>13.39</v>
       </c>
-      <c r="K166" s="21" t="s">
+      <c r="K166" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7485,7 +7482,7 @@
       <c r="D167" s="3">
         <v>58.36</v>
       </c>
-      <c r="E167" s="20"/>
+      <c r="E167" s="23"/>
       <c r="F167" s="4">
         <v>-0.69</v>
       </c>
@@ -7501,7 +7498,7 @@
       <c r="J167" s="7">
         <v>29.79</v>
       </c>
-      <c r="K167" s="21"/>
+      <c r="K167" s="24"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
@@ -7513,7 +7510,7 @@
       <c r="D168" s="3">
         <v>64.900000000000006</v>
       </c>
-      <c r="E168" s="20"/>
+      <c r="E168" s="23"/>
       <c r="F168" s="4">
         <v>-0.1</v>
       </c>
@@ -7529,7 +7526,7 @@
       <c r="J168" s="4">
         <v>-21.7</v>
       </c>
-      <c r="K168" s="21" t="s">
+      <c r="K168" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7543,7 +7540,7 @@
       <c r="D169" s="3">
         <v>66.400000000000006</v>
       </c>
-      <c r="E169" s="20"/>
+      <c r="E169" s="23"/>
       <c r="F169" s="4">
         <v>-0.15</v>
       </c>
@@ -7559,7 +7556,7 @@
       <c r="J169" s="4">
         <v>-25.35</v>
       </c>
-      <c r="K169" s="21"/>
+      <c r="K169" s="24"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
@@ -7571,7 +7568,7 @@
       <c r="D170" s="8">
         <v>4180</v>
       </c>
-      <c r="E170" s="20"/>
+      <c r="E170" s="23"/>
       <c r="F170" s="4">
         <v>-20</v>
       </c>
@@ -7587,7 +7584,7 @@
       <c r="J170" s="7">
         <v>120</v>
       </c>
-      <c r="K170" s="21" t="s">
+      <c r="K170" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7601,7 +7598,7 @@
       <c r="D171" s="8">
         <v>4240</v>
       </c>
-      <c r="E171" s="20"/>
+      <c r="E171" s="23"/>
       <c r="F171" s="4">
         <v>-0.47</v>
       </c>
@@ -7617,7 +7614,7 @@
       <c r="J171" s="7">
         <v>2.9</v>
       </c>
-      <c r="K171" s="21"/>
+      <c r="K171" s="24"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
@@ -7629,7 +7626,7 @@
       <c r="D172" s="3">
         <v>5.03</v>
       </c>
-      <c r="E172" s="20"/>
+      <c r="E172" s="23"/>
       <c r="F172" s="7">
         <v>0.09</v>
       </c>
@@ -7645,7 +7642,7 @@
       <c r="J172" s="4">
         <v>-10.09</v>
       </c>
-      <c r="K172" s="21" t="s">
+      <c r="K172" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7659,7 +7656,7 @@
       <c r="D173" s="3">
         <v>5.35</v>
       </c>
-      <c r="E173" s="20"/>
+      <c r="E173" s="23"/>
       <c r="F173" s="7">
         <v>1.65</v>
       </c>
@@ -7675,7 +7672,7 @@
       <c r="J173" s="4">
         <v>-66.73</v>
       </c>
-      <c r="K173" s="21"/>
+      <c r="K173" s="24"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
@@ -7687,7 +7684,7 @@
       <c r="D174" s="3">
         <v>32.700000000000003</v>
       </c>
-      <c r="E174" s="20"/>
+      <c r="E174" s="23"/>
       <c r="F174" s="4">
         <v>-0.95</v>
       </c>
@@ -7703,7 +7700,7 @@
       <c r="J174" s="7">
         <v>7.5</v>
       </c>
-      <c r="K174" s="21" t="s">
+      <c r="K174" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7717,7 +7714,7 @@
       <c r="D175" s="3">
         <v>34.049999999999997</v>
       </c>
-      <c r="E175" s="20"/>
+      <c r="E175" s="23"/>
       <c r="F175" s="4">
         <v>-2.81</v>
       </c>
@@ -7733,7 +7730,7 @@
       <c r="J175" s="7">
         <v>27.99</v>
       </c>
-      <c r="K175" s="21"/>
+      <c r="K175" s="24"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
@@ -7745,7 +7742,7 @@
       <c r="D176" s="3">
         <v>17.2</v>
       </c>
-      <c r="E176" s="20"/>
+      <c r="E176" s="23"/>
       <c r="F176" s="3">
         <v>0</v>
       </c>
@@ -7761,7 +7758,7 @@
       <c r="J176" s="4">
         <v>-2.65</v>
       </c>
-      <c r="K176" s="21" t="s">
+      <c r="K176" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7775,7 +7772,7 @@
       <c r="D177" s="3">
         <v>17.25</v>
       </c>
-      <c r="E177" s="20"/>
+      <c r="E177" s="23"/>
       <c r="F177" s="3">
         <v>0</v>
       </c>
@@ -7791,7 +7788,7 @@
       <c r="J177" s="4">
         <v>-13.49</v>
       </c>
-      <c r="K177" s="21"/>
+      <c r="K177" s="24"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
@@ -7803,7 +7800,7 @@
       <c r="D178" s="8">
         <v>1028</v>
       </c>
-      <c r="E178" s="20"/>
+      <c r="E178" s="23"/>
       <c r="F178" s="7">
         <v>12</v>
       </c>
@@ -7819,7 +7816,7 @@
       <c r="J178" s="7">
         <v>313</v>
       </c>
-      <c r="K178" s="21" t="s">
+      <c r="K178" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7833,7 +7830,7 @@
       <c r="D179" s="8">
         <v>1048</v>
       </c>
-      <c r="E179" s="20"/>
+      <c r="E179" s="23"/>
       <c r="F179" s="7">
         <v>1.18</v>
       </c>
@@ -7849,7 +7846,7 @@
       <c r="J179" s="7">
         <v>45.04</v>
       </c>
-      <c r="K179" s="21"/>
+      <c r="K179" s="24"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
@@ -7861,7 +7858,7 @@
       <c r="D180" s="8">
         <v>2680</v>
       </c>
-      <c r="E180" s="20"/>
+      <c r="E180" s="23"/>
       <c r="F180" s="3">
         <v>0</v>
       </c>
@@ -7877,7 +7874,7 @@
       <c r="J180" s="7">
         <v>355</v>
       </c>
-      <c r="K180" s="21" t="s">
+      <c r="K180" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7891,7 +7888,7 @@
       <c r="D181" s="8">
         <v>2740</v>
       </c>
-      <c r="E181" s="20"/>
+      <c r="E181" s="23"/>
       <c r="F181" s="3">
         <v>0</v>
       </c>
@@ -7907,7 +7904,7 @@
       <c r="J181" s="7">
         <v>15.33</v>
       </c>
-      <c r="K181" s="21"/>
+      <c r="K181" s="24"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
@@ -7919,7 +7916,7 @@
       <c r="D182" s="3">
         <v>595</v>
       </c>
-      <c r="E182" s="20"/>
+      <c r="E182" s="23"/>
       <c r="F182" s="4">
         <v>-8</v>
       </c>
@@ -7935,7 +7932,7 @@
       <c r="J182" s="4">
         <v>-72</v>
       </c>
-      <c r="K182" s="21" t="s">
+      <c r="K182" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7949,7 +7946,7 @@
       <c r="D183" s="3">
         <v>605</v>
       </c>
-      <c r="E183" s="20"/>
+      <c r="E183" s="23"/>
       <c r="F183" s="4">
         <v>-1.32</v>
       </c>
@@ -7965,7 +7962,7 @@
       <c r="J183" s="4">
         <v>-10.75</v>
       </c>
-      <c r="K183" s="21"/>
+      <c r="K183" s="24"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
@@ -7977,7 +7974,7 @@
       <c r="D184" s="3">
         <v>92.8</v>
       </c>
-      <c r="E184" s="20"/>
+      <c r="E184" s="23"/>
       <c r="F184" s="7">
         <v>0.6</v>
       </c>
@@ -7993,7 +7990,7 @@
       <c r="J184" s="4">
         <v>-14.2</v>
       </c>
-      <c r="K184" s="21" t="s">
+      <c r="K184" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8007,7 +8004,7 @@
       <c r="D185" s="3">
         <v>93.2</v>
       </c>
-      <c r="E185" s="20"/>
+      <c r="E185" s="23"/>
       <c r="F185" s="7">
         <v>0.65</v>
       </c>
@@ -8023,7 +8020,7 @@
       <c r="J185" s="4">
         <v>-13.27</v>
       </c>
-      <c r="K185" s="21"/>
+      <c r="K185" s="24"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
@@ -8035,7 +8032,7 @@
       <c r="D186" s="3">
         <v>109</v>
       </c>
-      <c r="E186" s="20"/>
+      <c r="E186" s="23"/>
       <c r="F186" s="4">
         <v>-1</v>
       </c>
@@ -8051,7 +8048,7 @@
       <c r="J186" s="7">
         <v>3</v>
       </c>
-      <c r="K186" s="21" t="s">
+      <c r="K186" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8065,7 +8062,7 @@
       <c r="D187" s="3">
         <v>111</v>
       </c>
-      <c r="E187" s="20"/>
+      <c r="E187" s="23"/>
       <c r="F187" s="4">
         <v>-0.91</v>
       </c>
@@ -8081,7 +8078,7 @@
       <c r="J187" s="7">
         <v>2.75</v>
       </c>
-      <c r="K187" s="21"/>
+      <c r="K187" s="24"/>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
@@ -8093,7 +8090,7 @@
       <c r="D188" s="3">
         <v>59.1</v>
       </c>
-      <c r="E188" s="20"/>
+      <c r="E188" s="23"/>
       <c r="F188" s="7">
         <v>0.24</v>
       </c>
@@ -8109,7 +8106,7 @@
       <c r="J188" s="7">
         <v>11.34</v>
       </c>
-      <c r="K188" s="21" t="s">
+      <c r="K188" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8123,7 +8120,7 @@
       <c r="D189" s="3">
         <v>59.84</v>
       </c>
-      <c r="E189" s="20"/>
+      <c r="E189" s="23"/>
       <c r="F189" s="7">
         <v>0.41</v>
       </c>
@@ -8139,7 +8136,7 @@
       <c r="J189" s="7">
         <v>23.72</v>
       </c>
-      <c r="K189" s="21"/>
+      <c r="K189" s="24"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
@@ -8151,7 +8148,7 @@
       <c r="D190" s="3">
         <v>153.80000000000001</v>
       </c>
-      <c r="E190" s="20"/>
+      <c r="E190" s="23"/>
       <c r="F190" s="4">
         <v>-1.6</v>
       </c>
@@ -8167,7 +8164,7 @@
       <c r="J190" s="7">
         <v>33.6</v>
       </c>
-      <c r="K190" s="21" t="s">
+      <c r="K190" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8181,7 +8178,7 @@
       <c r="D191" s="3">
         <v>155</v>
       </c>
-      <c r="E191" s="20"/>
+      <c r="E191" s="23"/>
       <c r="F191" s="4">
         <v>-1.03</v>
       </c>
@@ -8197,7 +8194,7 @@
       <c r="J191" s="7">
         <v>27.72</v>
       </c>
-      <c r="K191" s="21"/>
+      <c r="K191" s="24"/>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
@@ -8209,7 +8206,7 @@
       <c r="D192" s="3">
         <v>200.5</v>
       </c>
-      <c r="E192" s="20"/>
+      <c r="E192" s="23"/>
       <c r="F192" s="4">
         <v>-0.5</v>
       </c>
@@ -8225,7 +8222,7 @@
       <c r="J192" s="7">
         <v>19.600000000000001</v>
       </c>
-      <c r="K192" s="21" t="s">
+      <c r="K192" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8239,7 +8236,7 @@
       <c r="D193" s="3">
         <v>205</v>
       </c>
-      <c r="E193" s="20"/>
+      <c r="E193" s="23"/>
       <c r="F193" s="4">
         <v>-0.25</v>
       </c>
@@ -8255,7 +8252,7 @@
       <c r="J193" s="7">
         <v>11.29</v>
       </c>
-      <c r="K193" s="21"/>
+      <c r="K193" s="24"/>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
@@ -8267,7 +8264,7 @@
       <c r="D194" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="E194" s="20"/>
+      <c r="E194" s="23"/>
       <c r="F194" s="4">
         <v>-0.05</v>
       </c>
@@ -8283,7 +8280,7 @@
       <c r="J194" s="7">
         <v>4</v>
       </c>
-      <c r="K194" s="21" t="s">
+      <c r="K194" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8297,7 +8294,7 @@
       <c r="D195" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="E195" s="20"/>
+      <c r="E195" s="23"/>
       <c r="F195" s="4">
         <v>-0.26</v>
       </c>
@@ -8313,7 +8310,7 @@
       <c r="J195" s="7">
         <v>26.67</v>
       </c>
-      <c r="K195" s="21"/>
+      <c r="K195" s="24"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
@@ -8325,7 +8322,7 @@
       <c r="D196" s="3">
         <v>208</v>
       </c>
-      <c r="E196" s="20"/>
+      <c r="E196" s="23"/>
       <c r="F196" s="7">
         <v>0.5</v>
       </c>
@@ -8341,7 +8338,7 @@
       <c r="J196" s="4">
         <v>-48.5</v>
       </c>
-      <c r="K196" s="21" t="s">
+      <c r="K196" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8355,7 +8352,7 @@
       <c r="D197" s="3">
         <v>211.5</v>
       </c>
-      <c r="E197" s="20"/>
+      <c r="E197" s="23"/>
       <c r="F197" s="7">
         <v>0.24</v>
       </c>
@@ -8371,7 +8368,7 @@
       <c r="J197" s="4">
         <v>-19.09</v>
       </c>
-      <c r="K197" s="21"/>
+      <c r="K197" s="24"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
@@ -8383,7 +8380,7 @@
       <c r="D198" s="3">
         <v>1.63</v>
       </c>
-      <c r="E198" s="20"/>
+      <c r="E198" s="23"/>
       <c r="F198" s="4">
         <v>-0.05</v>
       </c>
@@ -8399,7 +8396,7 @@
       <c r="J198" s="4">
         <v>-1.04</v>
       </c>
-      <c r="K198" s="21" t="s">
+      <c r="K198" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8413,7 +8410,7 @@
       <c r="D199" s="3">
         <v>1.76</v>
       </c>
-      <c r="E199" s="20"/>
+      <c r="E199" s="23"/>
       <c r="F199" s="4">
         <v>-2.94</v>
       </c>
@@ -8429,7 +8426,7 @@
       <c r="J199" s="4">
         <v>-37.96</v>
       </c>
-      <c r="K199" s="21"/>
+      <c r="K199" s="24"/>
     </row>
     <row r="200" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
@@ -8441,7 +8438,7 @@
       <c r="D200" s="10">
         <v>0.01</v>
       </c>
-      <c r="E200" s="22"/>
+      <c r="E200" s="25"/>
       <c r="F200" s="11">
         <v>0</v>
       </c>
@@ -8457,7 +8454,7 @@
       <c r="J200" s="11">
         <v>-0.02</v>
       </c>
-      <c r="K200" s="23" t="s">
+      <c r="K200" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8471,7 +8468,7 @@
       <c r="D201" s="10">
         <v>0.01</v>
       </c>
-      <c r="E201" s="22"/>
+      <c r="E201" s="25"/>
       <c r="F201" s="11">
         <v>-2.86</v>
       </c>
@@ -8487,7 +8484,7 @@
       <c r="J201" s="11">
         <v>-62.96</v>
       </c>
-      <c r="K201" s="23"/>
+      <c r="K201" s="26"/>
     </row>
     <row r="202" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
@@ -8499,7 +8496,7 @@
       <c r="D202" s="10">
         <v>261.89999999999998</v>
       </c>
-      <c r="E202" s="22"/>
+      <c r="E202" s="25"/>
       <c r="F202" s="11">
         <v>-1.9</v>
       </c>
@@ -8515,7 +8512,7 @@
       <c r="J202" s="14">
         <v>27.9</v>
       </c>
-      <c r="K202" s="23" t="s">
+      <c r="K202" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8529,7 +8526,7 @@
       <c r="D203" s="10">
         <v>268.10000000000002</v>
       </c>
-      <c r="E203" s="22"/>
+      <c r="E203" s="25"/>
       <c r="F203" s="11">
         <v>-0.72</v>
       </c>
@@ -8545,7 +8542,7 @@
       <c r="J203" s="14">
         <v>11.59</v>
       </c>
-      <c r="K203" s="23"/>
+      <c r="K203" s="26"/>
     </row>
     <row r="204" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
@@ -8557,7 +8554,7 @@
       <c r="D204" s="10">
         <v>1.81</v>
       </c>
-      <c r="E204" s="22"/>
+      <c r="E204" s="25"/>
       <c r="F204" s="14">
         <v>0.02</v>
       </c>
@@ -8573,7 +8570,7 @@
       <c r="J204" s="14">
         <v>0.1</v>
       </c>
-      <c r="K204" s="23" t="s">
+      <c r="K204" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8587,7 +8584,7 @@
       <c r="D205" s="10">
         <v>1.92</v>
       </c>
-      <c r="E205" s="22"/>
+      <c r="E205" s="25"/>
       <c r="F205" s="14">
         <v>0.79</v>
       </c>
@@ -8603,7 +8600,7 @@
       <c r="J205" s="14">
         <v>5.59</v>
       </c>
-      <c r="K205" s="23"/>
+      <c r="K205" s="26"/>
     </row>
     <row r="206" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
@@ -8615,7 +8612,7 @@
       <c r="D206" s="10">
         <v>36.799999999999997</v>
       </c>
-      <c r="E206" s="22"/>
+      <c r="E206" s="25"/>
       <c r="F206" s="10">
         <v>0</v>
       </c>
@@ -8631,7 +8628,7 @@
       <c r="J206" s="14">
         <v>1.2</v>
       </c>
-      <c r="K206" s="23" t="s">
+      <c r="K206" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8645,7 +8642,7 @@
       <c r="D207" s="10">
         <v>37.4</v>
       </c>
-      <c r="E207" s="22"/>
+      <c r="E207" s="25"/>
       <c r="F207" s="10">
         <v>0</v>
       </c>
@@ -8661,7 +8658,7 @@
       <c r="J207" s="14">
         <v>3.35</v>
       </c>
-      <c r="K207" s="23"/>
+      <c r="K207" s="26"/>
     </row>
     <row r="208" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
@@ -8673,7 +8670,7 @@
       <c r="D208" s="10">
         <v>64.45</v>
       </c>
-      <c r="E208" s="22"/>
+      <c r="E208" s="25"/>
       <c r="F208" s="11">
         <v>-0.3</v>
       </c>
@@ -8689,7 +8686,7 @@
       <c r="J208" s="14">
         <v>7.35</v>
       </c>
-      <c r="K208" s="23" t="s">
+      <c r="K208" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8703,7 +8700,7 @@
       <c r="D209" s="10">
         <v>65.849999999999994</v>
       </c>
-      <c r="E209" s="22"/>
+      <c r="E209" s="25"/>
       <c r="F209" s="11">
         <v>-0.46</v>
       </c>
@@ -8719,7 +8716,7 @@
       <c r="J209" s="14">
         <v>12.82</v>
       </c>
-      <c r="K209" s="23"/>
+      <c r="K209" s="26"/>
     </row>
     <row r="210" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
@@ -8731,7 +8728,7 @@
       <c r="D210" s="10">
         <v>21.65</v>
       </c>
-      <c r="E210" s="22"/>
+      <c r="E210" s="25"/>
       <c r="F210" s="11">
         <v>-0.85</v>
       </c>
@@ -8747,7 +8744,7 @@
       <c r="J210" s="11">
         <v>-0.3</v>
       </c>
-      <c r="K210" s="23" t="s">
+      <c r="K210" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8761,7 +8758,7 @@
       <c r="D211" s="10">
         <v>22.8</v>
       </c>
-      <c r="E211" s="22"/>
+      <c r="E211" s="25"/>
       <c r="F211" s="11">
         <v>-3.75</v>
       </c>
@@ -8777,7 +8774,7 @@
       <c r="J211" s="11">
         <v>-1.35</v>
       </c>
-      <c r="K211" s="23"/>
+      <c r="K211" s="26"/>
     </row>
     <row r="212" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
@@ -8789,7 +8786,7 @@
       <c r="D212" s="10">
         <v>0.5</v>
       </c>
-      <c r="E212" s="22"/>
+      <c r="E212" s="25"/>
       <c r="F212" s="14">
         <v>0.02</v>
       </c>
@@ -8805,7 +8802,7 @@
       <c r="J212" s="14">
         <v>0.03</v>
       </c>
-      <c r="K212" s="23" t="s">
+      <c r="K212" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8819,7 +8816,7 @@
       <c r="D213" s="10">
         <v>0.51</v>
       </c>
-      <c r="E213" s="22"/>
+      <c r="E213" s="25"/>
       <c r="F213" s="14">
         <v>3.03</v>
       </c>
@@ -8835,7 +8832,7 @@
       <c r="J213" s="14">
         <v>6.25</v>
       </c>
-      <c r="K213" s="23"/>
+      <c r="K213" s="26"/>
     </row>
     <row r="214" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
@@ -8847,7 +8844,7 @@
       <c r="D214" s="15">
         <v>1940</v>
       </c>
-      <c r="E214" s="22"/>
+      <c r="E214" s="25"/>
       <c r="F214" s="11">
         <v>-10</v>
       </c>
@@ -8863,7 +8860,7 @@
       <c r="J214" s="14">
         <v>212</v>
       </c>
-      <c r="K214" s="23" t="s">
+      <c r="K214" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8877,7 +8874,7 @@
       <c r="D215" s="15">
         <v>1980</v>
       </c>
-      <c r="E215" s="22"/>
+      <c r="E215" s="25"/>
       <c r="F215" s="11">
         <v>-0.51</v>
       </c>
@@ -8893,7 +8890,7 @@
       <c r="J215" s="14">
         <v>12.24</v>
       </c>
-      <c r="K215" s="23"/>
+      <c r="K215" s="26"/>
     </row>
     <row r="216" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
@@ -8905,7 +8902,7 @@
       <c r="D216" s="10">
         <v>39.25</v>
       </c>
-      <c r="E216" s="22"/>
+      <c r="E216" s="25"/>
       <c r="F216" s="11">
         <v>-0.1</v>
       </c>
@@ -8921,7 +8918,7 @@
       <c r="J216" s="11">
         <v>-18.149999999999999</v>
       </c>
-      <c r="K216" s="23" t="s">
+      <c r="K216" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8935,7 +8932,7 @@
       <c r="D217" s="10">
         <v>40.1</v>
       </c>
-      <c r="E217" s="22"/>
+      <c r="E217" s="25"/>
       <c r="F217" s="11">
         <v>-0.25</v>
       </c>
@@ -8951,7 +8948,7 @@
       <c r="J217" s="11">
         <v>-31.57</v>
       </c>
-      <c r="K217" s="23"/>
+      <c r="K217" s="26"/>
     </row>
     <row r="218" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="s">
@@ -8963,7 +8960,7 @@
       <c r="D218" s="10">
         <v>60.7</v>
       </c>
-      <c r="E218" s="22"/>
+      <c r="E218" s="25"/>
       <c r="F218" s="11">
         <v>-0.1</v>
       </c>
@@ -8979,7 +8976,7 @@
       <c r="J218" s="14">
         <v>6.7</v>
       </c>
-      <c r="K218" s="23" t="s">
+      <c r="K218" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8993,7 +8990,7 @@
       <c r="D219" s="10">
         <v>62</v>
       </c>
-      <c r="E219" s="22"/>
+      <c r="E219" s="25"/>
       <c r="F219" s="11">
         <v>-0.16</v>
       </c>
@@ -9009,7 +9006,7 @@
       <c r="J219" s="14">
         <v>12.45</v>
       </c>
-      <c r="K219" s="23"/>
+      <c r="K219" s="26"/>
     </row>
     <row r="220" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
@@ -9021,7 +9018,7 @@
       <c r="D220" s="15">
         <v>101200</v>
       </c>
-      <c r="E220" s="22"/>
+      <c r="E220" s="25"/>
       <c r="F220" s="14">
         <v>400</v>
       </c>
@@ -9037,7 +9034,7 @@
       <c r="J220" s="16">
         <v>-6500</v>
       </c>
-      <c r="K220" s="23" t="s">
+      <c r="K220" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9051,7 +9048,7 @@
       <c r="D221" s="15">
         <v>102200</v>
       </c>
-      <c r="E221" s="22"/>
+      <c r="E221" s="25"/>
       <c r="F221" s="14">
         <v>0.4</v>
       </c>
@@ -9067,7 +9064,7 @@
       <c r="J221" s="11">
         <v>-5.97</v>
       </c>
-      <c r="K221" s="23"/>
+      <c r="K221" s="26"/>
     </row>
     <row r="222" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
@@ -9079,7 +9076,7 @@
       <c r="D222" s="15">
         <v>10230</v>
       </c>
-      <c r="E222" s="22"/>
+      <c r="E222" s="25"/>
       <c r="F222" s="14">
         <v>130</v>
       </c>
@@ -9095,7 +9092,7 @@
       <c r="J222" s="11">
         <v>-480</v>
       </c>
-      <c r="K222" s="23" t="s">
+      <c r="K222" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9109,7 +9106,7 @@
       <c r="D223" s="15">
         <v>10350</v>
       </c>
-      <c r="E223" s="22"/>
+      <c r="E223" s="25"/>
       <c r="F223" s="14">
         <v>1.28</v>
       </c>
@@ -9125,7 +9122,7 @@
       <c r="J223" s="11">
         <v>-4.4800000000000004</v>
       </c>
-      <c r="K223" s="23"/>
+      <c r="K223" s="26"/>
     </row>
     <row r="224" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
@@ -9137,7 +9134,7 @@
       <c r="D224" s="10">
         <v>58.9</v>
       </c>
-      <c r="E224" s="22"/>
+      <c r="E224" s="25"/>
       <c r="F224" s="11">
         <v>-0.82</v>
       </c>
@@ -9153,7 +9150,7 @@
       <c r="J224" s="14">
         <v>7.3</v>
       </c>
-      <c r="K224" s="23" t="s">
+      <c r="K224" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9167,7 +9164,7 @@
       <c r="D225" s="10">
         <v>60.46</v>
       </c>
-      <c r="E225" s="22"/>
+      <c r="E225" s="25"/>
       <c r="F225" s="11">
         <v>-1.37</v>
       </c>
@@ -9183,7 +9180,7 @@
       <c r="J225" s="14">
         <v>14.29</v>
       </c>
-      <c r="K225" s="23"/>
+      <c r="K225" s="26"/>
     </row>
     <row r="226" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
@@ -9195,7 +9192,7 @@
       <c r="D226" s="10">
         <v>477.5</v>
       </c>
-      <c r="E226" s="22"/>
+      <c r="E226" s="25"/>
       <c r="F226" s="11">
         <v>-2.5</v>
       </c>
@@ -9211,7 +9208,7 @@
       <c r="J226" s="11">
         <v>-76.3</v>
       </c>
-      <c r="K226" s="23" t="s">
+      <c r="K226" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9225,7 +9222,7 @@
       <c r="D227" s="10">
         <v>486.8</v>
       </c>
-      <c r="E227" s="22"/>
+      <c r="E227" s="25"/>
       <c r="F227" s="11">
         <v>-0.52</v>
       </c>
@@ -9241,7 +9238,7 @@
       <c r="J227" s="11">
         <v>-13.97</v>
       </c>
-      <c r="K227" s="23"/>
+      <c r="K227" s="26"/>
     </row>
     <row r="228" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
@@ -9253,7 +9250,7 @@
       <c r="D228" s="10">
         <v>73.7</v>
       </c>
-      <c r="E228" s="22"/>
+      <c r="E228" s="25"/>
       <c r="F228" s="14">
         <v>0.8</v>
       </c>
@@ -9269,7 +9266,7 @@
       <c r="J228" s="11">
         <v>-7.72</v>
       </c>
-      <c r="K228" s="23" t="s">
+      <c r="K228" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9283,7 +9280,7 @@
       <c r="D229" s="10">
         <v>74.599999999999994</v>
       </c>
-      <c r="E229" s="22"/>
+      <c r="E229" s="25"/>
       <c r="F229" s="14">
         <v>1.0900000000000001</v>
       </c>
@@ -9299,7 +9296,7 @@
       <c r="J229" s="11">
         <v>-9.39</v>
       </c>
-      <c r="K229" s="23"/>
+      <c r="K229" s="26"/>
     </row>
     <row r="230" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
@@ -9311,7 +9308,7 @@
       <c r="D230" s="10">
         <v>4.08</v>
       </c>
-      <c r="E230" s="22"/>
+      <c r="E230" s="25"/>
       <c r="F230" s="10">
         <v>0</v>
       </c>
@@ -9327,7 +9324,7 @@
       <c r="J230" s="11">
         <v>-1.61</v>
       </c>
-      <c r="K230" s="23" t="s">
+      <c r="K230" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9341,7 +9338,7 @@
       <c r="D231" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E231" s="22"/>
+      <c r="E231" s="25"/>
       <c r="F231" s="10">
         <v>0</v>
       </c>
@@ -9357,7 +9354,7 @@
       <c r="J231" s="11">
         <v>-27.63</v>
       </c>
-      <c r="K231" s="23"/>
+      <c r="K231" s="26"/>
     </row>
     <row r="232" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
@@ -9369,7 +9366,7 @@
       <c r="D232" s="10">
         <v>121.8</v>
       </c>
-      <c r="E232" s="22"/>
+      <c r="E232" s="25"/>
       <c r="F232" s="11">
         <v>-0.4</v>
       </c>
@@ -9385,7 +9382,7 @@
       <c r="J232" s="10">
         <v>0</v>
       </c>
-      <c r="K232" s="23" t="s">
+      <c r="K232" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9399,7 +9396,7 @@
       <c r="D233" s="10">
         <v>124.2</v>
       </c>
-      <c r="E233" s="22"/>
+      <c r="E233" s="25"/>
       <c r="F233" s="11">
         <v>-0.33</v>
       </c>
@@ -9415,7 +9412,7 @@
       <c r="J233" s="10">
         <v>0</v>
       </c>
-      <c r="K233" s="23"/>
+      <c r="K233" s="26"/>
     </row>
     <row r="234" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
@@ -9427,7 +9424,7 @@
       <c r="D234" s="10">
         <v>88.1</v>
       </c>
-      <c r="E234" s="22"/>
+      <c r="E234" s="25"/>
       <c r="F234" s="14">
         <v>1.2</v>
       </c>
@@ -9443,7 +9440,7 @@
       <c r="J234" s="14">
         <v>6.2</v>
       </c>
-      <c r="K234" s="23" t="s">
+      <c r="K234" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9457,7 +9454,7 @@
       <c r="D235" s="10">
         <v>99.4</v>
       </c>
-      <c r="E235" s="22"/>
+      <c r="E235" s="25"/>
       <c r="F235" s="14">
         <v>1.29</v>
       </c>
@@ -9473,7 +9470,7 @@
       <c r="J235" s="14">
         <v>8.1300000000000008</v>
       </c>
-      <c r="K235" s="23"/>
+      <c r="K235" s="26"/>
     </row>
     <row r="236" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
@@ -9485,7 +9482,7 @@
       <c r="D236" s="10">
         <v>25.35</v>
       </c>
-      <c r="E236" s="22"/>
+      <c r="E236" s="25"/>
       <c r="F236" s="14">
         <v>0.05</v>
       </c>
@@ -9501,7 +9498,7 @@
       <c r="J236" s="14">
         <v>3.65</v>
       </c>
-      <c r="K236" s="23" t="s">
+      <c r="K236" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9515,7 +9512,7 @@
       <c r="D237" s="10">
         <v>25.8</v>
       </c>
-      <c r="E237" s="22"/>
+      <c r="E237" s="25"/>
       <c r="F237" s="14">
         <v>0.2</v>
       </c>
@@ -9531,7 +9528,7 @@
       <c r="J237" s="14">
         <v>17.22</v>
       </c>
-      <c r="K237" s="23"/>
+      <c r="K237" s="26"/>
       <c r="O237">
         <f>426/2</f>
         <v>213</v>
@@ -9547,7 +9544,7 @@
       <c r="D238" s="10">
         <v>42.55</v>
       </c>
-      <c r="E238" s="22"/>
+      <c r="E238" s="25"/>
       <c r="F238" s="11">
         <v>-0.1</v>
       </c>
@@ -9563,7 +9560,7 @@
       <c r="J238" s="14">
         <v>10.5</v>
       </c>
-      <c r="K238" s="23" t="s">
+      <c r="K238" s="26" t="s">
         <v>201</v>
       </c>
       <c r="O238">
@@ -9580,7 +9577,7 @@
       <c r="D239" s="10">
         <v>43.75</v>
       </c>
-      <c r="E239" s="22"/>
+      <c r="E239" s="25"/>
       <c r="F239" s="11">
         <v>-0.23</v>
       </c>
@@ -9596,7 +9593,7 @@
       <c r="J239" s="14">
         <v>32.81</v>
       </c>
-      <c r="K239" s="23"/>
+      <c r="K239" s="26"/>
     </row>
     <row r="240" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
@@ -9608,7 +9605,7 @@
       <c r="D240" s="15">
         <v>1445</v>
       </c>
-      <c r="E240" s="22"/>
+      <c r="E240" s="25"/>
       <c r="F240" s="10">
         <v>0</v>
       </c>
@@ -9624,7 +9621,7 @@
       <c r="J240" s="11">
         <v>-535</v>
       </c>
-      <c r="K240" s="23" t="s">
+      <c r="K240" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9638,7 +9635,7 @@
       <c r="D241" s="15">
         <v>1465</v>
       </c>
-      <c r="E241" s="22"/>
+      <c r="E241" s="25"/>
       <c r="F241" s="10">
         <v>0</v>
       </c>
@@ -9654,7 +9651,7 @@
       <c r="J241" s="11">
         <v>-27.3</v>
       </c>
-      <c r="K241" s="23"/>
+      <c r="K241" s="26"/>
     </row>
     <row r="242" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
@@ -9666,7 +9663,7 @@
       <c r="D242" s="10">
         <v>0.43</v>
       </c>
-      <c r="E242" s="22"/>
+      <c r="E242" s="25"/>
       <c r="F242" s="11">
         <v>0</v>
       </c>
@@ -9682,7 +9679,7 @@
       <c r="J242" s="11">
         <v>-0.05</v>
       </c>
-      <c r="K242" s="23" t="s">
+      <c r="K242" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9696,7 +9693,7 @@
       <c r="D243" s="10">
         <v>0.45</v>
       </c>
-      <c r="E243" s="22"/>
+      <c r="E243" s="25"/>
       <c r="F243" s="11">
         <v>-0.47</v>
       </c>
@@ -9712,7 +9709,7 @@
       <c r="J243" s="11">
         <v>-10.54</v>
       </c>
-      <c r="K243" s="23"/>
+      <c r="K243" s="26"/>
     </row>
     <row r="244" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
@@ -9724,7 +9721,7 @@
       <c r="D244" s="10">
         <v>12.75</v>
       </c>
-      <c r="E244" s="22"/>
+      <c r="E244" s="25"/>
       <c r="F244" s="14">
         <v>0.1</v>
       </c>
@@ -9740,7 +9737,7 @@
       <c r="J244" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K244" s="23" t="s">
+      <c r="K244" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9754,7 +9751,7 @@
       <c r="D245" s="10">
         <v>12.85</v>
       </c>
-      <c r="E245" s="22"/>
+      <c r="E245" s="25"/>
       <c r="F245" s="14">
         <v>0.78</v>
       </c>
@@ -9770,7 +9767,7 @@
       <c r="J245" s="14">
         <v>47.67</v>
       </c>
-      <c r="K245" s="23"/>
+      <c r="K245" s="26"/>
     </row>
     <row r="246" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
@@ -9782,7 +9779,7 @@
       <c r="D246" s="10">
         <v>13.16</v>
       </c>
-      <c r="E246" s="22"/>
+      <c r="E246" s="25"/>
       <c r="F246" s="11">
         <v>-0.06</v>
       </c>
@@ -9798,7 +9795,7 @@
       <c r="J246" s="11">
         <v>-2.78</v>
       </c>
-      <c r="K246" s="23" t="s">
+      <c r="K246" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9812,7 +9809,7 @@
       <c r="D247" s="10">
         <v>13.42</v>
       </c>
-      <c r="E247" s="22"/>
+      <c r="E247" s="25"/>
       <c r="F247" s="11">
         <v>-0.45</v>
       </c>
@@ -9828,7 +9825,7 @@
       <c r="J247" s="11">
         <v>-17.75</v>
       </c>
-      <c r="K247" s="23"/>
+      <c r="K247" s="26"/>
     </row>
     <row r="248" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
@@ -9840,7 +9837,7 @@
       <c r="D248" s="10">
         <v>255.5</v>
       </c>
-      <c r="E248" s="22"/>
+      <c r="E248" s="25"/>
       <c r="F248" s="14">
         <v>1.5</v>
       </c>
@@ -9856,7 +9853,7 @@
       <c r="J248" s="11">
         <v>-1.5</v>
       </c>
-      <c r="K248" s="23" t="s">
+      <c r="K248" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9870,7 +9867,7 @@
       <c r="D249" s="10">
         <v>257</v>
       </c>
-      <c r="E249" s="22"/>
+      <c r="E249" s="25"/>
       <c r="F249" s="14">
         <v>0.59</v>
       </c>
@@ -9886,7 +9883,7 @@
       <c r="J249" s="11">
         <v>-0.6</v>
       </c>
-      <c r="K249" s="23"/>
+      <c r="K249" s="26"/>
     </row>
     <row r="250" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
@@ -9898,7 +9895,7 @@
       <c r="D250" s="10">
         <v>5.01</v>
       </c>
-      <c r="E250" s="22"/>
+      <c r="E250" s="25"/>
       <c r="F250" s="11">
         <v>-0.1</v>
       </c>
@@ -9914,7 +9911,7 @@
       <c r="J250" s="11">
         <v>-0.9</v>
       </c>
-      <c r="K250" s="23" t="s">
+      <c r="K250" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9928,7 +9925,7 @@
       <c r="D251" s="10">
         <v>5.17</v>
       </c>
-      <c r="E251" s="22"/>
+      <c r="E251" s="25"/>
       <c r="F251" s="11">
         <v>-1.96</v>
       </c>
@@ -9944,7 +9941,7 @@
       <c r="J251" s="11">
         <v>-15.31</v>
       </c>
-      <c r="K251" s="23"/>
+      <c r="K251" s="26"/>
     </row>
     <row r="252" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
@@ -9956,7 +9953,7 @@
       <c r="D252" s="10">
         <v>12.54</v>
       </c>
-      <c r="E252" s="22"/>
+      <c r="E252" s="25"/>
       <c r="F252" s="11">
         <v>-0.44</v>
       </c>
@@ -9972,7 +9969,7 @@
       <c r="J252" s="11">
         <v>-1.56</v>
       </c>
-      <c r="K252" s="23" t="s">
+      <c r="K252" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9986,7 +9983,7 @@
       <c r="D253" s="10">
         <v>13.22</v>
       </c>
-      <c r="E253" s="22"/>
+      <c r="E253" s="25"/>
       <c r="F253" s="11">
         <v>-3.39</v>
       </c>
@@ -10002,7 +9999,7 @@
       <c r="J253" s="11">
         <v>-10.77</v>
       </c>
-      <c r="K253" s="23"/>
+      <c r="K253" s="26"/>
     </row>
     <row r="254" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
@@ -10014,7 +10011,7 @@
       <c r="D254" s="10">
         <v>105.2</v>
       </c>
-      <c r="E254" s="22"/>
+      <c r="E254" s="25"/>
       <c r="F254" s="14">
         <v>0.98</v>
       </c>
@@ -10030,7 +10027,7 @@
       <c r="J254" s="11">
         <v>-13.08</v>
       </c>
-      <c r="K254" s="23" t="s">
+      <c r="K254" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10044,7 +10041,7 @@
       <c r="D255" s="10">
         <v>105.82</v>
       </c>
-      <c r="E255" s="22"/>
+      <c r="E255" s="25"/>
       <c r="F255" s="14">
         <v>0.94</v>
       </c>
@@ -10060,7 +10057,7 @@
       <c r="J255" s="11">
         <v>-11.16</v>
       </c>
-      <c r="K255" s="23"/>
+      <c r="K255" s="26"/>
     </row>
     <row r="256" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
@@ -10072,7 +10069,7 @@
       <c r="D256" s="10">
         <v>5.2</v>
       </c>
-      <c r="E256" s="22"/>
+      <c r="E256" s="25"/>
       <c r="F256" s="14">
         <v>0.28000000000000003</v>
       </c>
@@ -10088,7 +10085,7 @@
       <c r="J256" s="14">
         <v>4.07</v>
       </c>
-      <c r="K256" s="23" t="s">
+      <c r="K256" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10102,7 +10099,7 @@
       <c r="D257" s="10">
         <v>5.54</v>
       </c>
-      <c r="E257" s="22"/>
+      <c r="E257" s="25"/>
       <c r="F257" s="14">
         <v>5.36</v>
       </c>
@@ -10118,7 +10115,7 @@
       <c r="J257" s="14">
         <v>284.62</v>
       </c>
-      <c r="K257" s="23"/>
+      <c r="K257" s="26"/>
     </row>
     <row r="258" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
@@ -10130,7 +10127,7 @@
       <c r="D258" s="10">
         <v>89.63</v>
       </c>
-      <c r="E258" s="22"/>
+      <c r="E258" s="25"/>
       <c r="F258" s="11">
         <v>-0.51</v>
       </c>
@@ -10146,7 +10143,7 @@
       <c r="J258" s="14">
         <v>8.14</v>
       </c>
-      <c r="K258" s="23" t="s">
+      <c r="K258" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10160,7 +10157,7 @@
       <c r="D259" s="10">
         <v>91.04</v>
       </c>
-      <c r="E259" s="22"/>
+      <c r="E259" s="25"/>
       <c r="F259" s="11">
         <v>-0.56000000000000005</v>
       </c>
@@ -10176,7 +10173,7 @@
       <c r="J259" s="14">
         <v>9.94</v>
       </c>
-      <c r="K259" s="23"/>
+      <c r="K259" s="26"/>
     </row>
     <row r="260" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
@@ -10188,7 +10185,7 @@
       <c r="D260" s="10">
         <v>33</v>
       </c>
-      <c r="E260" s="22"/>
+      <c r="E260" s="25"/>
       <c r="F260" s="14">
         <v>0.2</v>
       </c>
@@ -10204,7 +10201,7 @@
       <c r="J260" s="11">
         <v>-9.5399999999999991</v>
       </c>
-      <c r="K260" s="23" t="s">
+      <c r="K260" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10218,7 +10215,7 @@
       <c r="D261" s="10">
         <v>33.6</v>
       </c>
-      <c r="E261" s="22"/>
+      <c r="E261" s="25"/>
       <c r="F261" s="14">
         <v>0.6</v>
       </c>
@@ -10234,7 +10231,7 @@
       <c r="J261" s="11">
         <v>-21.77</v>
       </c>
-      <c r="K261" s="23"/>
+      <c r="K261" s="26"/>
     </row>
     <row r="262" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
@@ -10246,7 +10243,7 @@
       <c r="D262" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E262" s="22"/>
+      <c r="E262" s="25"/>
       <c r="F262" s="11">
         <v>0</v>
       </c>
@@ -10262,7 +10259,7 @@
       <c r="J262" s="11">
         <v>-1.26</v>
       </c>
-      <c r="K262" s="23" t="s">
+      <c r="K262" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10276,7 +10273,7 @@
       <c r="D263" s="10">
         <v>0.08</v>
       </c>
-      <c r="E263" s="22"/>
+      <c r="E263" s="25"/>
       <c r="F263" s="11">
         <v>-3.27</v>
       </c>
@@ -10292,7 +10289,7 @@
       <c r="J263" s="11">
         <v>-94.02</v>
       </c>
-      <c r="K263" s="23"/>
+      <c r="K263" s="26"/>
     </row>
     <row r="264" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
@@ -10304,7 +10301,7 @@
       <c r="D264" s="10">
         <v>4.21</v>
       </c>
-      <c r="E264" s="22"/>
+      <c r="E264" s="25"/>
       <c r="F264" s="11">
         <v>-0.01</v>
       </c>
@@ -10320,7 +10317,7 @@
       <c r="J264" s="11">
         <v>-3.27</v>
       </c>
-      <c r="K264" s="23" t="s">
+      <c r="K264" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10334,7 +10331,7 @@
       <c r="D265" s="10">
         <v>4.28</v>
       </c>
-      <c r="E265" s="22"/>
+      <c r="E265" s="25"/>
       <c r="F265" s="11">
         <v>-0.24</v>
       </c>
@@ -10350,7 +10347,7 @@
       <c r="J265" s="11">
         <v>-44.43</v>
       </c>
-      <c r="K265" s="23"/>
+      <c r="K265" s="26"/>
     </row>
     <row r="266" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
@@ -10362,7 +10359,7 @@
       <c r="D266" s="10">
         <v>2.6</v>
       </c>
-      <c r="E266" s="22"/>
+      <c r="E266" s="25"/>
       <c r="F266" s="14">
         <v>0.16</v>
       </c>
@@ -10378,7 +10375,7 @@
       <c r="J266" s="14">
         <v>0.8</v>
       </c>
-      <c r="K266" s="23" t="s">
+      <c r="K266" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10392,7 +10389,7 @@
       <c r="D267" s="10">
         <v>2.9</v>
       </c>
-      <c r="E267" s="22"/>
+      <c r="E267" s="25"/>
       <c r="F267" s="14">
         <v>5.84</v>
       </c>
@@ -10408,7 +10405,7 @@
       <c r="J267" s="14">
         <v>42.11</v>
       </c>
-      <c r="K267" s="23"/>
+      <c r="K267" s="26"/>
     </row>
     <row r="268" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
@@ -10420,7 +10417,7 @@
       <c r="D268" s="10">
         <v>5</v>
       </c>
-      <c r="E268" s="22"/>
+      <c r="E268" s="25"/>
       <c r="F268" s="14">
         <v>0.2</v>
       </c>
@@ -10436,7 +10433,7 @@
       <c r="J268" s="11">
         <v>-1.94</v>
       </c>
-      <c r="K268" s="23" t="s">
+      <c r="K268" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10450,7 +10447,7 @@
       <c r="D269" s="10">
         <v>5.2</v>
       </c>
-      <c r="E269" s="22"/>
+      <c r="E269" s="25"/>
       <c r="F269" s="14">
         <v>4</v>
       </c>
@@ -10466,7 +10463,7 @@
       <c r="J269" s="11">
         <v>-25.46</v>
       </c>
-      <c r="K269" s="23"/>
+      <c r="K269" s="26"/>
     </row>
     <row r="270" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
@@ -10478,7 +10475,7 @@
       <c r="D270" s="10">
         <v>73</v>
       </c>
-      <c r="E270" s="22"/>
+      <c r="E270" s="25"/>
       <c r="F270" s="11">
         <v>-0.2</v>
       </c>
@@ -10494,7 +10491,7 @@
       <c r="J270" s="11">
         <v>-11.4</v>
       </c>
-      <c r="K270" s="23" t="s">
+      <c r="K270" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10508,7 +10505,7 @@
       <c r="D271" s="10">
         <v>73</v>
       </c>
-      <c r="E271" s="22"/>
+      <c r="E271" s="25"/>
       <c r="F271" s="11">
         <v>-0.27</v>
       </c>
@@ -10524,7 +10521,7 @@
       <c r="J271" s="11">
         <v>-13.48</v>
       </c>
-      <c r="K271" s="23"/>
+      <c r="K271" s="26"/>
     </row>
     <row r="272" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
@@ -10536,7 +10533,7 @@
       <c r="D272" s="10">
         <v>72.3</v>
       </c>
-      <c r="E272" s="22"/>
+      <c r="E272" s="25"/>
       <c r="F272" s="10">
         <v>0</v>
       </c>
@@ -10552,7 +10549,7 @@
       <c r="J272" s="11">
         <v>-4.3</v>
       </c>
-      <c r="K272" s="23" t="s">
+      <c r="K272" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10566,7 +10563,7 @@
       <c r="D273" s="10">
         <v>73.599999999999994</v>
       </c>
-      <c r="E273" s="22"/>
+      <c r="E273" s="25"/>
       <c r="F273" s="10">
         <v>0</v>
       </c>
@@ -10582,7 +10579,7 @@
       <c r="J273" s="11">
         <v>-5.42</v>
       </c>
-      <c r="K273" s="23"/>
+      <c r="K273" s="26"/>
     </row>
     <row r="274" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
@@ -10594,7 +10591,7 @@
       <c r="D274" s="10">
         <v>921</v>
       </c>
-      <c r="E274" s="22"/>
+      <c r="E274" s="25"/>
       <c r="F274" s="14">
         <v>2.4</v>
       </c>
@@ -10610,7 +10607,7 @@
       <c r="J274" s="11">
         <v>-51.8</v>
       </c>
-      <c r="K274" s="23" t="s">
+      <c r="K274" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10624,7 +10621,7 @@
       <c r="D275" s="10">
         <v>934.2</v>
       </c>
-      <c r="E275" s="22"/>
+      <c r="E275" s="25"/>
       <c r="F275" s="14">
         <v>0.26</v>
       </c>
@@ -10640,7 +10637,7 @@
       <c r="J275" s="11">
         <v>-5.33</v>
       </c>
-      <c r="K275" s="23"/>
+      <c r="K275" s="26"/>
     </row>
     <row r="276" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
@@ -10652,7 +10649,7 @@
       <c r="D276" s="10">
         <v>11.54</v>
       </c>
-      <c r="E276" s="22"/>
+      <c r="E276" s="25"/>
       <c r="F276" s="14">
         <v>1.1000000000000001</v>
       </c>
@@ -10668,7 +10665,7 @@
       <c r="J276" s="11">
         <v>-20</v>
       </c>
-      <c r="K276" s="23" t="s">
+      <c r="K276" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10682,7 +10679,7 @@
       <c r="D277" s="10">
         <v>12.62</v>
       </c>
-      <c r="E277" s="22"/>
+      <c r="E277" s="25"/>
       <c r="F277" s="14">
         <v>9.57</v>
       </c>
@@ -10698,7 +10695,7 @@
       <c r="J277" s="11">
         <v>-65.569999999999993</v>
       </c>
-      <c r="K277" s="23"/>
+      <c r="K277" s="26"/>
     </row>
     <row r="278" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="s">
@@ -10710,7 +10707,7 @@
       <c r="D278" s="10">
         <v>0</v>
       </c>
-      <c r="E278" s="22"/>
+      <c r="E278" s="25"/>
       <c r="F278" s="10">
         <v>0</v>
       </c>
@@ -10726,7 +10723,7 @@
       <c r="J278" s="11">
         <v>-7.5</v>
       </c>
-      <c r="K278" s="23" t="s">
+      <c r="K278" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10740,7 +10737,7 @@
       <c r="D279" s="10">
         <v>0</v>
       </c>
-      <c r="E279" s="22"/>
+      <c r="E279" s="25"/>
       <c r="F279" s="10">
         <v>0</v>
       </c>
@@ -10756,7 +10753,7 @@
       <c r="J279" s="11">
         <v>-8.33</v>
       </c>
-      <c r="K279" s="23"/>
+      <c r="K279" s="26"/>
     </row>
     <row r="280" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
@@ -10768,7 +10765,7 @@
       <c r="D280" s="10">
         <v>352</v>
       </c>
-      <c r="E280" s="22"/>
+      <c r="E280" s="25"/>
       <c r="F280" s="14">
         <v>9</v>
       </c>
@@ -10784,7 +10781,7 @@
       <c r="J280" s="14">
         <v>2</v>
       </c>
-      <c r="K280" s="23" t="s">
+      <c r="K280" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10798,7 +10795,7 @@
       <c r="D281" s="10">
         <v>361</v>
       </c>
-      <c r="E281" s="22"/>
+      <c r="E281" s="25"/>
       <c r="F281" s="14">
         <v>2.56</v>
       </c>
@@ -10814,7 +10811,7 @@
       <c r="J281" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K281" s="23"/>
+      <c r="K281" s="26"/>
     </row>
     <row r="282" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
@@ -10826,7 +10823,7 @@
       <c r="D282" s="10">
         <v>73.400000000000006</v>
       </c>
-      <c r="E282" s="22"/>
+      <c r="E282" s="25"/>
       <c r="F282" s="14">
         <v>0.4</v>
       </c>
@@ -10842,7 +10839,7 @@
       <c r="J282" s="14">
         <v>16</v>
       </c>
-      <c r="K282" s="23" t="s">
+      <c r="K282" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10856,7 +10853,7 @@
       <c r="D283" s="10">
         <v>74.8</v>
       </c>
-      <c r="E283" s="22"/>
+      <c r="E283" s="25"/>
       <c r="F283" s="14">
         <v>0.55000000000000004</v>
       </c>
@@ -10872,7 +10869,7 @@
       <c r="J283" s="14">
         <v>27.78</v>
       </c>
-      <c r="K283" s="23"/>
+      <c r="K283" s="26"/>
     </row>
     <row r="284" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
@@ -10884,7 +10881,7 @@
       <c r="D284" s="10">
         <v>309</v>
       </c>
-      <c r="E284" s="22"/>
+      <c r="E284" s="25"/>
       <c r="F284" s="11">
         <v>-4</v>
       </c>
@@ -10900,7 +10897,7 @@
       <c r="J284" s="11">
         <v>-9</v>
       </c>
-      <c r="K284" s="23" t="s">
+      <c r="K284" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10914,7 +10911,7 @@
       <c r="D285" s="10">
         <v>312</v>
       </c>
-      <c r="E285" s="22"/>
+      <c r="E285" s="25"/>
       <c r="F285" s="11">
         <v>-1.27</v>
       </c>
@@ -10930,7 +10927,7 @@
       <c r="J285" s="11">
         <v>-2.78</v>
       </c>
-      <c r="K285" s="23"/>
+      <c r="K285" s="26"/>
     </row>
     <row r="286" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
@@ -10942,7 +10939,7 @@
       <c r="D286" s="10">
         <v>24.08</v>
       </c>
-      <c r="E286" s="22"/>
+      <c r="E286" s="25"/>
       <c r="F286" s="11">
         <v>-0.84</v>
       </c>
@@ -10958,7 +10955,7 @@
       <c r="J286" s="11">
         <v>-8.14</v>
       </c>
-      <c r="K286" s="23" t="s">
+      <c r="K286" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10972,7 +10969,7 @@
       <c r="D287" s="10">
         <v>25.2</v>
       </c>
-      <c r="E287" s="22"/>
+      <c r="E287" s="25"/>
       <c r="F287" s="11">
         <v>-3.35</v>
       </c>
@@ -10988,7 +10985,7 @@
       <c r="J287" s="11">
         <v>-24.94</v>
       </c>
-      <c r="K287" s="23"/>
+      <c r="K287" s="26"/>
     </row>
     <row r="288" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
@@ -11000,7 +10997,7 @@
       <c r="D288" s="10">
         <v>67.2</v>
       </c>
-      <c r="E288" s="22"/>
+      <c r="E288" s="25"/>
       <c r="F288" s="14">
         <v>0.2</v>
       </c>
@@ -11016,7 +11013,7 @@
       <c r="J288" s="11">
         <v>-13.2</v>
       </c>
-      <c r="K288" s="23" t="s">
+      <c r="K288" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11030,7 +11027,7 @@
       <c r="D289" s="10">
         <v>68</v>
       </c>
-      <c r="E289" s="22"/>
+      <c r="E289" s="25"/>
       <c r="F289" s="14">
         <v>0.3</v>
       </c>
@@ -11046,7 +11043,7 @@
       <c r="J289" s="11">
         <v>-16.420000000000002</v>
       </c>
-      <c r="K289" s="23"/>
+      <c r="K289" s="26"/>
     </row>
     <row r="290" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B290" s="1" t="s">
@@ -11058,7 +11055,7 @@
       <c r="D290" s="10">
         <v>105</v>
       </c>
-      <c r="E290" s="22"/>
+      <c r="E290" s="25"/>
       <c r="F290" s="14">
         <v>1</v>
       </c>
@@ -11074,7 +11071,7 @@
       <c r="J290" s="11">
         <v>-10.199999999999999</v>
       </c>
-      <c r="K290" s="23" t="s">
+      <c r="K290" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11088,7 +11085,7 @@
       <c r="D291" s="10">
         <v>106.7</v>
       </c>
-      <c r="E291" s="22"/>
+      <c r="E291" s="25"/>
       <c r="F291" s="14">
         <v>0.95</v>
       </c>
@@ -11104,7 +11101,7 @@
       <c r="J291" s="11">
         <v>-9.0399999999999991</v>
       </c>
-      <c r="K291" s="23"/>
+      <c r="K291" s="26"/>
     </row>
     <row r="292" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
@@ -11116,7 +11113,7 @@
       <c r="D292" s="10">
         <v>2.02</v>
       </c>
-      <c r="E292" s="22"/>
+      <c r="E292" s="25"/>
       <c r="F292" s="11">
         <v>-0.01</v>
       </c>
@@ -11132,7 +11129,7 @@
       <c r="J292" s="11">
         <v>-11.15</v>
       </c>
-      <c r="K292" s="23" t="s">
+      <c r="K292" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11146,7 +11143,7 @@
       <c r="D293" s="10">
         <v>2.12</v>
       </c>
-      <c r="E293" s="22"/>
+      <c r="E293" s="25"/>
       <c r="F293" s="11">
         <v>-0.47</v>
       </c>
@@ -11162,7 +11159,7 @@
       <c r="J293" s="11">
         <v>-83.71</v>
       </c>
-      <c r="K293" s="23"/>
+      <c r="K293" s="26"/>
     </row>
     <row r="294" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
@@ -11174,7 +11171,7 @@
       <c r="D294" s="10">
         <v>92.5</v>
       </c>
-      <c r="E294" s="22"/>
+      <c r="E294" s="25"/>
       <c r="F294" s="11">
         <v>-1.1000000000000001</v>
       </c>
@@ -11190,7 +11187,7 @@
       <c r="J294" s="11">
         <v>-11.1</v>
       </c>
-      <c r="K294" s="23" t="s">
+      <c r="K294" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11204,7 +11201,7 @@
       <c r="D295" s="10">
         <v>94.7</v>
       </c>
-      <c r="E295" s="22"/>
+      <c r="E295" s="25"/>
       <c r="F295" s="11">
         <v>-1.17</v>
       </c>
@@ -11220,7 +11217,7 @@
       <c r="J295" s="11">
         <v>-10.84</v>
       </c>
-      <c r="K295" s="23"/>
+      <c r="K295" s="26"/>
     </row>
     <row r="296" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
@@ -11232,7 +11229,7 @@
       <c r="D296" s="10">
         <v>0.38</v>
       </c>
-      <c r="E296" s="22"/>
+      <c r="E296" s="25"/>
       <c r="F296" s="14">
         <v>0</v>
       </c>
@@ -11248,7 +11245,7 @@
       <c r="J296" s="11">
         <v>-0.44</v>
       </c>
-      <c r="K296" s="23" t="s">
+      <c r="K296" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11262,7 +11259,7 @@
       <c r="D297" s="10">
         <v>0.4</v>
       </c>
-      <c r="E297" s="22"/>
+      <c r="E297" s="25"/>
       <c r="F297" s="14">
         <v>0.27</v>
       </c>
@@ -11278,7 +11275,7 @@
       <c r="J297" s="11">
         <v>-53.13</v>
       </c>
-      <c r="K297" s="23"/>
+      <c r="K297" s="26"/>
     </row>
     <row r="298" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="s">
@@ -11290,7 +11287,7 @@
       <c r="D298" s="10">
         <v>0</v>
       </c>
-      <c r="E298" s="22"/>
+      <c r="E298" s="25"/>
       <c r="F298" s="11">
         <v>0</v>
       </c>
@@ -11306,7 +11303,7 @@
       <c r="J298" s="11">
         <v>-0.16</v>
       </c>
-      <c r="K298" s="23" t="s">
+      <c r="K298" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -11320,7 +11317,7 @@
       <c r="D299" s="10">
         <v>0</v>
       </c>
-      <c r="E299" s="22"/>
+      <c r="E299" s="25"/>
       <c r="F299" s="11">
         <v>-37.5</v>
       </c>
@@ -11336,7 +11333,7 @@
       <c r="J299" s="11">
         <v>-94.05</v>
       </c>
-      <c r="K299" s="23"/>
+      <c r="K299" s="26"/>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
@@ -11348,7 +11345,7 @@
       <c r="D300" s="3">
         <v>43.2</v>
       </c>
-      <c r="E300" s="20"/>
+      <c r="E300" s="23"/>
       <c r="F300" s="7">
         <v>0.1</v>
       </c>
@@ -11364,7 +11361,7 @@
       <c r="J300" s="7">
         <v>0.4</v>
       </c>
-      <c r="K300" s="21" t="s">
+      <c r="K300" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11378,7 +11375,7 @@
       <c r="D301" s="3">
         <v>43.8</v>
       </c>
-      <c r="E301" s="20"/>
+      <c r="E301" s="23"/>
       <c r="F301" s="7">
         <v>0.23</v>
       </c>
@@ -11394,7 +11391,7 @@
       <c r="J301" s="7">
         <v>0.92</v>
       </c>
-      <c r="K301" s="21"/>
+      <c r="K301" s="24"/>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="s">
@@ -11406,7 +11403,7 @@
       <c r="D302" s="3">
         <v>259.5</v>
       </c>
-      <c r="E302" s="20"/>
+      <c r="E302" s="23"/>
       <c r="F302" s="4">
         <v>-2.4</v>
       </c>
@@ -11422,7 +11419,7 @@
       <c r="J302" s="4">
         <v>-69.7</v>
       </c>
-      <c r="K302" s="21" t="s">
+      <c r="K302" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11436,7 +11433,7 @@
       <c r="D303" s="3">
         <v>262.89999999999998</v>
       </c>
-      <c r="E303" s="20"/>
+      <c r="E303" s="23"/>
       <c r="F303" s="4">
         <v>-0.91</v>
       </c>
@@ -11452,7 +11449,7 @@
       <c r="J303" s="4">
         <v>-21.51</v>
       </c>
-      <c r="K303" s="21"/>
+      <c r="K303" s="24"/>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
@@ -11464,7 +11461,7 @@
       <c r="D304" s="3">
         <v>275.2</v>
       </c>
-      <c r="E304" s="20"/>
+      <c r="E304" s="23"/>
       <c r="F304" s="4">
         <v>-3.2</v>
       </c>
@@ -11480,7 +11477,7 @@
       <c r="J304" s="4">
         <v>-112.8</v>
       </c>
-      <c r="K304" s="21" t="s">
+      <c r="K304" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11494,7 +11491,7 @@
       <c r="D305" s="3">
         <v>280</v>
       </c>
-      <c r="E305" s="20"/>
+      <c r="E305" s="23"/>
       <c r="F305" s="4">
         <v>-1.1499999999999999</v>
       </c>
@@ -11510,7 +11507,7 @@
       <c r="J305" s="4">
         <v>-29.28</v>
       </c>
-      <c r="K305" s="21"/>
+      <c r="K305" s="24"/>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="s">
@@ -11522,7 +11519,7 @@
       <c r="D306" s="3">
         <v>50.4</v>
       </c>
-      <c r="E306" s="20"/>
+      <c r="E306" s="23"/>
       <c r="F306" s="7">
         <v>2.4</v>
       </c>
@@ -11538,7 +11535,7 @@
       <c r="J306" s="7">
         <v>5.6</v>
       </c>
-      <c r="K306" s="21" t="s">
+      <c r="K306" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11552,7 +11549,7 @@
       <c r="D307" s="3">
         <v>53</v>
       </c>
-      <c r="E307" s="20"/>
+      <c r="E307" s="23"/>
       <c r="F307" s="7">
         <v>4.74</v>
       </c>
@@ -11568,7 +11565,7 @@
       <c r="J307" s="7">
         <v>12.44</v>
       </c>
-      <c r="K307" s="21"/>
+      <c r="K307" s="24"/>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
@@ -11580,7 +11577,7 @@
       <c r="D308" s="3">
         <v>499.5</v>
       </c>
-      <c r="E308" s="20"/>
+      <c r="E308" s="23"/>
       <c r="F308" s="7">
         <v>1</v>
       </c>
@@ -11596,7 +11593,7 @@
       <c r="J308" s="7">
         <v>35</v>
       </c>
-      <c r="K308" s="21" t="s">
+      <c r="K308" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11610,7 +11607,7 @@
       <c r="D309" s="3">
         <v>505</v>
       </c>
-      <c r="E309" s="20"/>
+      <c r="E309" s="23"/>
       <c r="F309" s="7">
         <v>0.2</v>
       </c>
@@ -11626,7 +11623,7 @@
       <c r="J309" s="7">
         <v>7.49</v>
       </c>
-      <c r="K309" s="21"/>
+      <c r="K309" s="24"/>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
@@ -11638,7 +11635,7 @@
       <c r="D310" s="3">
         <v>7.85</v>
       </c>
-      <c r="E310" s="20"/>
+      <c r="E310" s="23"/>
       <c r="F310" s="7">
         <v>0.03</v>
       </c>
@@ -11654,7 +11651,7 @@
       <c r="J310" s="7">
         <v>0.54</v>
       </c>
-      <c r="K310" s="21" t="s">
+      <c r="K310" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11668,7 +11665,7 @@
       <c r="D311" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E311" s="20"/>
+      <c r="E311" s="23"/>
       <c r="F311" s="7">
         <v>0.38</v>
       </c>
@@ -11684,7 +11681,7 @@
       <c r="J311" s="7">
         <v>7.34</v>
       </c>
-      <c r="K311" s="21"/>
+      <c r="K311" s="24"/>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
@@ -11696,7 +11693,7 @@
       <c r="D312" s="3">
         <v>491</v>
       </c>
-      <c r="E312" s="20"/>
+      <c r="E312" s="23"/>
       <c r="F312" s="7">
         <v>1</v>
       </c>
@@ -11712,7 +11709,7 @@
       <c r="J312" s="7">
         <v>184</v>
       </c>
-      <c r="K312" s="21" t="s">
+      <c r="K312" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11726,7 +11723,7 @@
       <c r="D313" s="3">
         <v>494</v>
       </c>
-      <c r="E313" s="20"/>
+      <c r="E313" s="23"/>
       <c r="F313" s="7">
         <v>0.2</v>
       </c>
@@ -11742,7 +11739,7 @@
       <c r="J313" s="7">
         <v>60.13</v>
       </c>
-      <c r="K313" s="21"/>
+      <c r="K313" s="24"/>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B314" s="1" t="s">
@@ -11754,7 +11751,7 @@
       <c r="D314" s="3">
         <v>192.55</v>
       </c>
-      <c r="E314" s="20"/>
+      <c r="E314" s="23"/>
       <c r="F314" s="4">
         <v>-1.3</v>
       </c>
@@ -11770,7 +11767,7 @@
       <c r="J314" s="7">
         <v>22.3</v>
       </c>
-      <c r="K314" s="21" t="s">
+      <c r="K314" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11784,7 +11781,7 @@
       <c r="D315" s="3">
         <v>196.2</v>
       </c>
-      <c r="E315" s="20"/>
+      <c r="E315" s="23"/>
       <c r="F315" s="4">
         <v>-0.67</v>
       </c>
@@ -11800,7 +11797,7 @@
       <c r="J315" s="7">
         <v>12.89</v>
       </c>
-      <c r="K315" s="21"/>
+      <c r="K315" s="24"/>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
@@ -11812,7 +11809,7 @@
       <c r="D316" s="3">
         <v>182.4</v>
       </c>
-      <c r="E316" s="20"/>
+      <c r="E316" s="23"/>
       <c r="F316" s="4">
         <v>-1.3</v>
       </c>
@@ -11828,7 +11825,7 @@
       <c r="J316" s="7">
         <v>14.4</v>
       </c>
-      <c r="K316" s="21" t="s">
+      <c r="K316" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11842,7 +11839,7 @@
       <c r="D317" s="3">
         <v>185.7</v>
       </c>
-      <c r="E317" s="20"/>
+      <c r="E317" s="23"/>
       <c r="F317" s="4">
         <v>-0.71</v>
       </c>
@@ -11858,7 +11855,7 @@
       <c r="J317" s="7">
         <v>8.4700000000000006</v>
       </c>
-      <c r="K317" s="21"/>
+      <c r="K317" s="24"/>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B318" s="1" t="s">
@@ -11870,7 +11867,7 @@
       <c r="D318" s="3">
         <v>0</v>
       </c>
-      <c r="E318" s="20"/>
+      <c r="E318" s="23"/>
       <c r="F318" s="4">
         <v>-3</v>
       </c>
@@ -11886,7 +11883,7 @@
       <c r="J318" s="4">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="K318" s="21" t="s">
+      <c r="K318" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11900,7 +11897,7 @@
       <c r="D319" s="3">
         <v>0</v>
       </c>
-      <c r="E319" s="20"/>
+      <c r="E319" s="23"/>
       <c r="F319" s="4">
         <v>-11.72</v>
       </c>
@@ -11916,7 +11913,7 @@
       <c r="J319" s="4">
         <v>-8.4</v>
       </c>
-      <c r="K319" s="21"/>
+      <c r="K319" s="24"/>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
@@ -11928,7 +11925,7 @@
       <c r="D320" s="3">
         <v>599</v>
       </c>
-      <c r="E320" s="20"/>
+      <c r="E320" s="23"/>
       <c r="F320" s="4">
         <v>-21</v>
       </c>
@@ -11944,7 +11941,7 @@
       <c r="J320" s="4">
         <v>-343</v>
       </c>
-      <c r="K320" s="21" t="s">
+      <c r="K320" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11958,7 +11955,7 @@
       <c r="D321" s="3">
         <v>636</v>
       </c>
-      <c r="E321" s="20"/>
+      <c r="E321" s="23"/>
       <c r="F321" s="4">
         <v>-3.39</v>
       </c>
@@ -11974,7 +11971,7 @@
       <c r="J321" s="4">
         <v>-36.22</v>
       </c>
-      <c r="K321" s="21"/>
+      <c r="K321" s="24"/>
     </row>
     <row r="322" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
@@ -11986,7 +11983,7 @@
       <c r="D322" s="8">
         <v>4600</v>
       </c>
-      <c r="E322" s="20"/>
+      <c r="E322" s="23"/>
       <c r="F322" s="4">
         <v>-80</v>
       </c>
@@ -12002,7 +11999,7 @@
       <c r="J322" s="17">
         <v>-1330</v>
       </c>
-      <c r="K322" s="21" t="s">
+      <c r="K322" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12016,7 +12013,7 @@
       <c r="D323" s="8">
         <v>4710</v>
       </c>
-      <c r="E323" s="20"/>
+      <c r="E323" s="23"/>
       <c r="F323" s="4">
         <v>-1.7</v>
       </c>
@@ -12032,7 +12029,7 @@
       <c r="J323" s="4">
         <v>-21.8</v>
       </c>
-      <c r="K323" s="21"/>
+      <c r="K323" s="24"/>
     </row>
     <row r="324" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
@@ -12044,7 +12041,7 @@
       <c r="D324" s="3">
         <v>73.900000000000006</v>
       </c>
-      <c r="E324" s="20"/>
+      <c r="E324" s="23"/>
       <c r="F324" s="7">
         <v>1.2</v>
       </c>
@@ -12060,7 +12057,7 @@
       <c r="J324" s="4">
         <v>-37.700000000000003</v>
       </c>
-      <c r="K324" s="21" t="s">
+      <c r="K324" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12074,7 +12071,7 @@
       <c r="D325" s="3">
         <v>77.400000000000006</v>
       </c>
-      <c r="E325" s="20"/>
+      <c r="E325" s="23"/>
       <c r="F325" s="7">
         <v>1.63</v>
       </c>
@@ -12090,7 +12087,7 @@
       <c r="J325" s="4">
         <v>-33.659999999999997</v>
       </c>
-      <c r="K325" s="21"/>
+      <c r="K325" s="24"/>
     </row>
     <row r="326" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
@@ -12102,7 +12099,7 @@
       <c r="D326" s="3">
         <v>85</v>
       </c>
-      <c r="E326" s="20"/>
+      <c r="E326" s="23"/>
       <c r="F326" s="7">
         <v>0.5</v>
       </c>
@@ -12118,7 +12115,7 @@
       <c r="J326" s="4">
         <v>-8</v>
       </c>
-      <c r="K326" s="21" t="s">
+      <c r="K326" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12132,7 +12129,7 @@
       <c r="D327" s="3">
         <v>85.5</v>
       </c>
-      <c r="E327" s="20"/>
+      <c r="E327" s="23"/>
       <c r="F327" s="7">
         <v>0.59</v>
       </c>
@@ -12148,7 +12145,7 @@
       <c r="J327" s="4">
         <v>-8.42</v>
       </c>
-      <c r="K327" s="21"/>
+      <c r="K327" s="24"/>
     </row>
     <row r="328" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
@@ -12160,7 +12157,7 @@
       <c r="D328" s="3">
         <v>98.4</v>
       </c>
-      <c r="E328" s="20"/>
+      <c r="E328" s="23"/>
       <c r="F328" s="4">
         <v>-1</v>
       </c>
@@ -12176,7 +12173,7 @@
       <c r="J328" s="7">
         <v>4.5</v>
       </c>
-      <c r="K328" s="21" t="s">
+      <c r="K328" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12190,7 +12187,7 @@
       <c r="D329" s="3">
         <v>100.8</v>
       </c>
-      <c r="E329" s="20"/>
+      <c r="E329" s="23"/>
       <c r="F329" s="4">
         <v>-1</v>
       </c>
@@ -12206,7 +12203,7 @@
       <c r="J329" s="7">
         <v>4.72</v>
       </c>
-      <c r="K329" s="21"/>
+      <c r="K329" s="24"/>
     </row>
     <row r="330" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
@@ -12218,7 +12215,7 @@
       <c r="D330" s="3">
         <v>79.42</v>
       </c>
-      <c r="E330" s="20"/>
+      <c r="E330" s="23"/>
       <c r="F330" s="4">
         <v>-0.57999999999999996</v>
       </c>
@@ -12234,7 +12231,7 @@
       <c r="J330" s="4">
         <v>-8.84</v>
       </c>
-      <c r="K330" s="21" t="s">
+      <c r="K330" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12248,7 +12245,7 @@
       <c r="D331" s="3">
         <v>81.239999999999995</v>
       </c>
-      <c r="E331" s="20"/>
+      <c r="E331" s="23"/>
       <c r="F331" s="4">
         <v>-0.72</v>
       </c>
@@ -12264,7 +12261,7 @@
       <c r="J331" s="4">
         <v>-9.93</v>
       </c>
-      <c r="K331" s="21"/>
+      <c r="K331" s="24"/>
     </row>
     <row r="332" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
@@ -12276,7 +12273,7 @@
       <c r="D332" s="3">
         <v>7.25</v>
       </c>
-      <c r="E332" s="20"/>
+      <c r="E332" s="23"/>
       <c r="F332" s="7">
         <v>0.7</v>
       </c>
@@ -12292,7 +12289,7 @@
       <c r="J332" s="4">
         <v>-9</v>
       </c>
-      <c r="K332" s="21" t="s">
+      <c r="K332" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12306,7 +12303,7 @@
       <c r="D333" s="3">
         <v>7.85</v>
       </c>
-      <c r="E333" s="20"/>
+      <c r="E333" s="23"/>
       <c r="F333" s="7">
         <v>10.29</v>
       </c>
@@ -12322,7 +12319,7 @@
       <c r="J333" s="4">
         <v>-54.88</v>
       </c>
-      <c r="K333" s="21"/>
+      <c r="K333" s="24"/>
     </row>
     <row r="334" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="s">
@@ -12334,7 +12331,7 @@
       <c r="D334" s="3">
         <v>777.5</v>
       </c>
-      <c r="E334" s="20"/>
+      <c r="E334" s="23"/>
       <c r="F334" s="4">
         <v>-6</v>
       </c>
@@ -12350,7 +12347,7 @@
       <c r="J334" s="7">
         <v>57.49</v>
       </c>
-      <c r="K334" s="21" t="s">
+      <c r="K334" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12364,7 +12361,7 @@
       <c r="D335" s="3">
         <v>796</v>
       </c>
-      <c r="E335" s="20"/>
+      <c r="E335" s="23"/>
       <c r="F335" s="4">
         <v>-0.76</v>
       </c>
@@ -12380,7 +12377,7 @@
       <c r="J335" s="7">
         <v>7.76</v>
       </c>
-      <c r="K335" s="21"/>
+      <c r="K335" s="24"/>
     </row>
     <row r="336" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
@@ -12392,7 +12389,7 @@
       <c r="D336" s="3">
         <v>22.18</v>
       </c>
-      <c r="E336" s="20"/>
+      <c r="E336" s="23"/>
       <c r="F336" s="7">
         <v>0.12</v>
       </c>
@@ -12408,7 +12405,7 @@
       <c r="J336" s="4">
         <v>-2.86</v>
       </c>
-      <c r="K336" s="21" t="s">
+      <c r="K336" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12422,7 +12419,7 @@
       <c r="D337" s="3">
         <v>22.4</v>
       </c>
-      <c r="E337" s="20"/>
+      <c r="E337" s="23"/>
       <c r="F337" s="7">
         <v>0.54</v>
       </c>
@@ -12438,7 +12435,7 @@
       <c r="J337" s="4">
         <v>-11.62</v>
       </c>
-      <c r="K337" s="21"/>
+      <c r="K337" s="24"/>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B338" s="1" t="s">
@@ -12450,7 +12447,7 @@
       <c r="D338" s="3">
         <v>239.9</v>
       </c>
-      <c r="E338" s="20"/>
+      <c r="E338" s="23"/>
       <c r="F338" s="4">
         <v>-5.3</v>
       </c>
@@ -12466,7 +12463,7 @@
       <c r="J338" s="7">
         <v>14.9</v>
       </c>
-      <c r="K338" s="21" t="s">
+      <c r="K338" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12480,7 +12477,7 @@
       <c r="D339" s="3">
         <v>247.8</v>
       </c>
-      <c r="E339" s="20"/>
+      <c r="E339" s="23"/>
       <c r="F339" s="4">
         <v>-2.15</v>
       </c>
@@ -12496,7 +12493,7 @@
       <c r="J339" s="7">
         <v>6.48</v>
       </c>
-      <c r="K339" s="21"/>
+      <c r="K339" s="24"/>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="s">
@@ -12508,7 +12505,7 @@
       <c r="D340" s="3">
         <v>80.7</v>
       </c>
-      <c r="E340" s="20"/>
+      <c r="E340" s="23"/>
       <c r="F340" s="7">
         <v>1</v>
       </c>
@@ -12524,7 +12521,7 @@
       <c r="J340" s="7">
         <v>25.8</v>
       </c>
-      <c r="K340" s="21" t="s">
+      <c r="K340" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12538,7 +12535,7 @@
       <c r="D341" s="3">
         <v>82.9</v>
       </c>
-      <c r="E341" s="20"/>
+      <c r="E341" s="23"/>
       <c r="F341" s="7">
         <v>1.24</v>
       </c>
@@ -12554,7 +12551,7 @@
       <c r="J341" s="7">
         <v>50.69</v>
       </c>
-      <c r="K341" s="21"/>
+      <c r="K341" s="24"/>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="s">
@@ -12566,7 +12563,7 @@
       <c r="D342" s="3">
         <v>17.920000000000002</v>
       </c>
-      <c r="E342" s="20"/>
+      <c r="E342" s="23"/>
       <c r="F342" s="4">
         <v>-0.34</v>
       </c>
@@ -12582,7 +12579,7 @@
       <c r="J342" s="7">
         <v>5.98</v>
       </c>
-      <c r="K342" s="21" t="s">
+      <c r="K342" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12596,7 +12593,7 @@
       <c r="D343" s="3">
         <v>18.739999999999998</v>
       </c>
-      <c r="E343" s="20"/>
+      <c r="E343" s="23"/>
       <c r="F343" s="4">
         <v>-1.81</v>
       </c>
@@ -12612,7 +12609,7 @@
       <c r="J343" s="7">
         <v>46.68</v>
       </c>
-      <c r="K343" s="21"/>
+      <c r="K343" s="24"/>
     </row>
     <row r="344" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
@@ -12624,7 +12621,7 @@
       <c r="D344" s="3">
         <v>235.3</v>
       </c>
-      <c r="E344" s="20"/>
+      <c r="E344" s="23"/>
       <c r="F344" s="7">
         <v>1.2</v>
       </c>
@@ -12640,7 +12637,7 @@
       <c r="J344" s="4">
         <v>-45.7</v>
       </c>
-      <c r="K344" s="21" t="s">
+      <c r="K344" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12654,7 +12651,7 @@
       <c r="D345" s="3">
         <v>237.8</v>
       </c>
-      <c r="E345" s="20"/>
+      <c r="E345" s="23"/>
       <c r="F345" s="7">
         <v>0.51</v>
       </c>
@@ -12670,7 +12667,7 @@
       <c r="J345" s="4">
         <v>-16.41</v>
       </c>
-      <c r="K345" s="21"/>
+      <c r="K345" s="24"/>
     </row>
     <row r="346" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B346" s="1" t="s">
@@ -12682,7 +12679,7 @@
       <c r="D346" s="3">
         <v>32.32</v>
       </c>
-      <c r="E346" s="20"/>
+      <c r="E346" s="23"/>
       <c r="F346" s="4">
         <v>-0.32</v>
       </c>
@@ -12698,7 +12695,7 @@
       <c r="J346" s="7">
         <v>3.6</v>
       </c>
-      <c r="K346" s="21" t="s">
+      <c r="K346" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12712,7 +12709,7 @@
       <c r="D347" s="3">
         <v>33.200000000000003</v>
       </c>
-      <c r="E347" s="20"/>
+      <c r="E347" s="23"/>
       <c r="F347" s="4">
         <v>-0.98</v>
       </c>
@@ -12728,7 +12725,7 @@
       <c r="J347" s="7">
         <v>12.53</v>
       </c>
-      <c r="K347" s="21"/>
+      <c r="K347" s="24"/>
     </row>
     <row r="348" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="s">
@@ -12740,7 +12737,7 @@
       <c r="D348" s="3">
         <v>48.8</v>
       </c>
-      <c r="E348" s="20"/>
+      <c r="E348" s="23"/>
       <c r="F348" s="4">
         <v>-5</v>
       </c>
@@ -12756,7 +12753,7 @@
       <c r="J348" s="7">
         <v>14.1</v>
       </c>
-      <c r="K348" s="21" t="s">
+      <c r="K348" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12770,7 +12767,7 @@
       <c r="D349" s="3">
         <v>55.5</v>
       </c>
-      <c r="E349" s="20"/>
+      <c r="E349" s="23"/>
       <c r="F349" s="4">
         <v>-9.01</v>
       </c>
@@ -12786,7 +12783,7 @@
       <c r="J349" s="7">
         <v>34.9</v>
       </c>
-      <c r="K349" s="21"/>
+      <c r="K349" s="24"/>
     </row>
     <row r="350" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B350" s="1" t="s">
@@ -12798,7 +12795,7 @@
       <c r="D350" s="3">
         <v>132.25</v>
       </c>
-      <c r="E350" s="20"/>
+      <c r="E350" s="23"/>
       <c r="F350" s="4">
         <v>-0.45</v>
       </c>
@@ -12814,7 +12811,7 @@
       <c r="J350" s="7">
         <v>20.85</v>
       </c>
-      <c r="K350" s="21" t="s">
+      <c r="K350" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12828,7 +12825,7 @@
       <c r="D351" s="3">
         <v>135.69999999999999</v>
       </c>
-      <c r="E351" s="20"/>
+      <c r="E351" s="23"/>
       <c r="F351" s="4">
         <v>-0.34</v>
       </c>
@@ -12844,7 +12841,7 @@
       <c r="J351" s="7">
         <v>18.84</v>
       </c>
-      <c r="K351" s="21"/>
+      <c r="K351" s="24"/>
     </row>
     <row r="352" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="s">
@@ -12856,7 +12853,7 @@
       <c r="D352" s="3">
         <v>86.7</v>
       </c>
-      <c r="E352" s="20"/>
+      <c r="E352" s="23"/>
       <c r="F352" s="4">
         <v>-0.3</v>
       </c>
@@ -12872,7 +12869,7 @@
       <c r="J352" s="7">
         <v>26.05</v>
       </c>
-      <c r="K352" s="21" t="s">
+      <c r="K352" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12886,7 +12883,7 @@
       <c r="D353" s="3">
         <v>87.95</v>
       </c>
-      <c r="E353" s="20"/>
+      <c r="E353" s="23"/>
       <c r="F353" s="4">
         <v>-0.34</v>
       </c>
@@ -12902,7 +12899,7 @@
       <c r="J353" s="7">
         <v>43.27</v>
       </c>
-      <c r="K353" s="21"/>
+      <c r="K353" s="24"/>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
@@ -12914,7 +12911,7 @@
       <c r="D354" s="3">
         <v>246.9</v>
       </c>
-      <c r="E354" s="20"/>
+      <c r="E354" s="23"/>
       <c r="F354" s="7">
         <v>0.5</v>
       </c>
@@ -12930,7 +12927,7 @@
       <c r="J354" s="7">
         <v>12.9</v>
       </c>
-      <c r="K354" s="21" t="s">
+      <c r="K354" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12944,7 +12941,7 @@
       <c r="D355" s="3">
         <v>250.5</v>
       </c>
-      <c r="E355" s="20"/>
+      <c r="E355" s="23"/>
       <c r="F355" s="7">
         <v>0.2</v>
       </c>
@@ -12960,7 +12957,7 @@
       <c r="J355" s="7">
         <v>5.47</v>
       </c>
-      <c r="K355" s="21"/>
+      <c r="K355" s="24"/>
     </row>
     <row r="356" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="s">
@@ -12972,7 +12969,7 @@
       <c r="D356" s="3">
         <v>46.8</v>
       </c>
-      <c r="E356" s="20"/>
+      <c r="E356" s="23"/>
       <c r="F356" s="3">
         <v>0</v>
       </c>
@@ -12988,7 +12985,7 @@
       <c r="J356" s="7">
         <v>3.51</v>
       </c>
-      <c r="K356" s="21" t="s">
+      <c r="K356" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13002,7 +12999,7 @@
       <c r="D357" s="3">
         <v>47.5</v>
       </c>
-      <c r="E357" s="20"/>
+      <c r="E357" s="23"/>
       <c r="F357" s="3">
         <v>0</v>
       </c>
@@ -13018,7 +13015,7 @@
       <c r="J357" s="7">
         <v>8.02</v>
       </c>
-      <c r="K357" s="21"/>
+      <c r="K357" s="24"/>
     </row>
     <row r="358" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="s">
@@ -13030,7 +13027,7 @@
       <c r="D358" s="3">
         <v>541</v>
       </c>
-      <c r="E358" s="20"/>
+      <c r="E358" s="23"/>
       <c r="F358" s="7">
         <v>2</v>
       </c>
@@ -13046,7 +13043,7 @@
       <c r="J358" s="7">
         <v>27.6</v>
       </c>
-      <c r="K358" s="21" t="s">
+      <c r="K358" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13060,7 +13057,7 @@
       <c r="D359" s="3">
         <v>547.4</v>
       </c>
-      <c r="E359" s="20"/>
+      <c r="E359" s="23"/>
       <c r="F359" s="7">
         <v>0.37</v>
       </c>
@@ -13076,7 +13073,7 @@
       <c r="J359" s="7">
         <v>5.38</v>
       </c>
-      <c r="K359" s="21"/>
+      <c r="K359" s="24"/>
     </row>
     <row r="360" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
@@ -13088,7 +13085,7 @@
       <c r="D360" s="3">
         <v>82.05</v>
       </c>
-      <c r="E360" s="20"/>
+      <c r="E360" s="23"/>
       <c r="F360" s="3">
         <v>0</v>
       </c>
@@ -13104,7 +13101,7 @@
       <c r="J360" s="4">
         <v>-5.15</v>
       </c>
-      <c r="K360" s="21" t="s">
+      <c r="K360" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13118,7 +13115,7 @@
       <c r="D361" s="3">
         <v>84.15</v>
       </c>
-      <c r="E361" s="20"/>
+      <c r="E361" s="23"/>
       <c r="F361" s="3">
         <v>0</v>
       </c>
@@ -13134,7 +13131,7 @@
       <c r="J361" s="4">
         <v>-5.91</v>
       </c>
-      <c r="K361" s="21"/>
+      <c r="K361" s="24"/>
     </row>
     <row r="362" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="s">
@@ -13146,7 +13143,7 @@
       <c r="D362" s="3">
         <v>84.16</v>
       </c>
-      <c r="E362" s="20"/>
+      <c r="E362" s="23"/>
       <c r="F362" s="7">
         <v>0.3</v>
       </c>
@@ -13162,7 +13159,7 @@
       <c r="J362" s="7">
         <v>9.58</v>
       </c>
-      <c r="K362" s="21" t="s">
+      <c r="K362" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13176,7 +13173,7 @@
       <c r="D363" s="3">
         <v>85.02</v>
       </c>
-      <c r="E363" s="20"/>
+      <c r="E363" s="23"/>
       <c r="F363" s="7">
         <v>0.36</v>
       </c>
@@ -13192,7 +13189,7 @@
       <c r="J363" s="7">
         <v>12.93</v>
       </c>
-      <c r="K363" s="21"/>
+      <c r="K363" s="24"/>
     </row>
     <row r="364" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
@@ -13204,7 +13201,7 @@
       <c r="D364" s="3">
         <v>0.12</v>
       </c>
-      <c r="E364" s="20"/>
+      <c r="E364" s="23"/>
       <c r="F364" s="4">
         <v>0</v>
       </c>
@@ -13220,7 +13217,7 @@
       <c r="J364" s="4">
         <v>-0.16</v>
       </c>
-      <c r="K364" s="21" t="s">
+      <c r="K364" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13234,7 +13231,7 @@
       <c r="D365" s="3">
         <v>0.13</v>
       </c>
-      <c r="E365" s="20"/>
+      <c r="E365" s="23"/>
       <c r="F365" s="4">
         <v>-3.45</v>
       </c>
@@ -13250,7 +13247,7 @@
       <c r="J365" s="4">
         <v>-57.14</v>
       </c>
-      <c r="K365" s="21"/>
+      <c r="K365" s="24"/>
     </row>
     <row r="366" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="s">
@@ -13262,7 +13259,7 @@
       <c r="D366" s="3">
         <v>528.20000000000005</v>
       </c>
-      <c r="E366" s="20"/>
+      <c r="E366" s="23"/>
       <c r="F366" s="7">
         <v>0.2</v>
       </c>
@@ -13278,7 +13275,7 @@
       <c r="J366" s="7">
         <v>15.2</v>
       </c>
-      <c r="K366" s="21" t="s">
+      <c r="K366" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13292,7 +13289,7 @@
       <c r="D367" s="3">
         <v>532.4</v>
       </c>
-      <c r="E367" s="20"/>
+      <c r="E367" s="23"/>
       <c r="F367" s="7">
         <v>0.04</v>
       </c>
@@ -13308,7 +13305,7 @@
       <c r="J367" s="7">
         <v>2.95</v>
       </c>
-      <c r="K367" s="21"/>
+      <c r="K367" s="24"/>
     </row>
     <row r="368" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
@@ -13320,7 +13317,7 @@
       <c r="D368" s="3">
         <v>178.8</v>
       </c>
-      <c r="E368" s="20"/>
+      <c r="E368" s="23"/>
       <c r="F368" s="4">
         <v>-3</v>
       </c>
@@ -13336,7 +13333,7 @@
       <c r="J368" s="7">
         <v>70.400000000000006</v>
       </c>
-      <c r="K368" s="21" t="s">
+      <c r="K368" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13350,7 +13347,7 @@
       <c r="D369" s="3">
         <v>186</v>
       </c>
-      <c r="E369" s="20"/>
+      <c r="E369" s="23"/>
       <c r="F369" s="4">
         <v>-1.64</v>
       </c>
@@ -13366,7 +13363,7 @@
       <c r="J369" s="7">
         <v>63.2</v>
       </c>
-      <c r="K369" s="21"/>
+      <c r="K369" s="24"/>
     </row>
     <row r="370" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B370" s="1" t="s">
@@ -13378,7 +13375,7 @@
       <c r="D370" s="3">
         <v>343</v>
       </c>
-      <c r="E370" s="20"/>
+      <c r="E370" s="23"/>
       <c r="F370" s="4">
         <v>-0.6</v>
       </c>
@@ -13394,7 +13391,7 @@
       <c r="J370" s="4">
         <v>-24.4</v>
       </c>
-      <c r="K370" s="21" t="s">
+      <c r="K370" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13408,7 +13405,7 @@
       <c r="D371" s="3">
         <v>351.4</v>
       </c>
-      <c r="E371" s="20"/>
+      <c r="E371" s="23"/>
       <c r="F371" s="4">
         <v>-0.17</v>
       </c>
@@ -13424,7 +13421,7 @@
       <c r="J371" s="4">
         <v>-6.79</v>
       </c>
-      <c r="K371" s="21"/>
+      <c r="K371" s="24"/>
     </row>
     <row r="372" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="s">
@@ -13436,7 +13433,7 @@
       <c r="D372" s="3">
         <v>67.86</v>
       </c>
-      <c r="E372" s="20"/>
+      <c r="E372" s="23"/>
       <c r="F372" s="4">
         <v>-0.9</v>
       </c>
@@ -13452,7 +13449,7 @@
       <c r="J372" s="4">
         <v>-8.5</v>
       </c>
-      <c r="K372" s="21" t="s">
+      <c r="K372" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13466,7 +13463,7 @@
       <c r="D373" s="3">
         <v>70.42</v>
       </c>
-      <c r="E373" s="20"/>
+      <c r="E373" s="23"/>
       <c r="F373" s="4">
         <v>-1.31</v>
       </c>
@@ -13482,7 +13479,7 @@
       <c r="J373" s="4">
         <v>-11.08</v>
       </c>
-      <c r="K373" s="21"/>
+      <c r="K373" s="24"/>
     </row>
     <row r="374" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B374" s="1" t="s">
@@ -13494,7 +13491,7 @@
       <c r="D374" s="3">
         <v>121</v>
       </c>
-      <c r="E374" s="20"/>
+      <c r="E374" s="23"/>
       <c r="F374" s="3">
         <v>0</v>
       </c>
@@ -13510,7 +13507,7 @@
       <c r="J374" s="7">
         <v>4</v>
       </c>
-      <c r="K374" s="21" t="s">
+      <c r="K374" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13524,7 +13521,7 @@
       <c r="D375" s="3">
         <v>123</v>
       </c>
-      <c r="E375" s="20"/>
+      <c r="E375" s="23"/>
       <c r="F375" s="3">
         <v>0</v>
       </c>
@@ -13540,7 +13537,7 @@
       <c r="J375" s="7">
         <v>3.39</v>
       </c>
-      <c r="K375" s="21"/>
+      <c r="K375" s="24"/>
     </row>
     <row r="376" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
@@ -13552,7 +13549,7 @@
       <c r="D376" s="3">
         <v>5.7</v>
       </c>
-      <c r="E376" s="20"/>
+      <c r="E376" s="23"/>
       <c r="F376" s="7">
         <v>0.04</v>
       </c>
@@ -13568,7 +13565,7 @@
       <c r="J376" s="7">
         <v>0.08</v>
       </c>
-      <c r="K376" s="21" t="s">
+      <c r="K376" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13582,7 +13579,7 @@
       <c r="D377" s="3">
         <v>5.9</v>
       </c>
-      <c r="E377" s="20"/>
+      <c r="E377" s="23"/>
       <c r="F377" s="7">
         <v>0.68</v>
       </c>
@@ -13598,7 +13595,7 @@
       <c r="J377" s="7">
         <v>1.4</v>
       </c>
-      <c r="K377" s="21"/>
+      <c r="K377" s="24"/>
     </row>
     <row r="378" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B378" s="1" t="s">
@@ -13610,7 +13607,7 @@
       <c r="D378" s="3">
         <v>88.3</v>
       </c>
-      <c r="E378" s="20"/>
+      <c r="E378" s="23"/>
       <c r="F378" s="7">
         <v>1.9</v>
       </c>
@@ -13626,7 +13623,7 @@
       <c r="J378" s="4">
         <v>-52.6</v>
       </c>
-      <c r="K378" s="21" t="s">
+      <c r="K378" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13640,7 +13637,7 @@
       <c r="D379" s="3">
         <v>91.7</v>
       </c>
-      <c r="E379" s="20"/>
+      <c r="E379" s="23"/>
       <c r="F379" s="7">
         <v>2.15</v>
       </c>
@@ -13656,7 +13653,7 @@
       <c r="J379" s="4">
         <v>-37.840000000000003</v>
       </c>
-      <c r="K379" s="21"/>
+      <c r="K379" s="24"/>
     </row>
     <row r="380" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B380" s="1" t="s">
@@ -13668,7 +13665,7 @@
       <c r="D380" s="3">
         <v>77.3</v>
       </c>
-      <c r="E380" s="20"/>
+      <c r="E380" s="23"/>
       <c r="F380" s="4">
         <v>-0.7</v>
       </c>
@@ -13684,7 +13681,7 @@
       <c r="J380" s="4">
         <v>-60.36</v>
       </c>
-      <c r="K380" s="21" t="s">
+      <c r="K380" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13698,7 +13695,7 @@
       <c r="D381" s="3">
         <v>79.900000000000006</v>
       </c>
-      <c r="E381" s="20"/>
+      <c r="E381" s="23"/>
       <c r="F381" s="4">
         <v>-0.9</v>
       </c>
@@ -13714,7 +13711,7 @@
       <c r="J381" s="4">
         <v>-44.1</v>
       </c>
-      <c r="K381" s="21"/>
+      <c r="K381" s="24"/>
     </row>
     <row r="382" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B382" s="1" t="s">
@@ -13726,7 +13723,7 @@
       <c r="D382" s="3">
         <v>21.49</v>
       </c>
-      <c r="E382" s="20"/>
+      <c r="E382" s="23"/>
       <c r="F382" s="7">
         <v>0.63</v>
       </c>
@@ -13742,7 +13739,7 @@
       <c r="J382" s="7">
         <v>5.31</v>
       </c>
-      <c r="K382" s="21" t="s">
+      <c r="K382" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13756,7 +13753,7 @@
       <c r="D383" s="3">
         <v>22.05</v>
       </c>
-      <c r="E383" s="20"/>
+      <c r="E383" s="23"/>
       <c r="F383" s="7">
         <v>2.95</v>
       </c>
@@ -13772,7 +13769,7 @@
       <c r="J383" s="7">
         <v>34.68</v>
       </c>
-      <c r="K383" s="21"/>
+      <c r="K383" s="24"/>
     </row>
     <row r="384" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
@@ -13784,7 +13781,7 @@
       <c r="D384" s="3">
         <v>94</v>
       </c>
-      <c r="E384" s="20"/>
+      <c r="E384" s="23"/>
       <c r="F384" s="3">
         <v>0</v>
       </c>
@@ -13800,7 +13797,7 @@
       <c r="J384" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K384" s="21" t="s">
+      <c r="K384" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13814,7 +13811,7 @@
       <c r="D385" s="3">
         <v>94.9</v>
       </c>
-      <c r="E385" s="20"/>
+      <c r="E385" s="23"/>
       <c r="F385" s="3">
         <v>0</v>
       </c>
@@ -13830,7 +13827,7 @@
       <c r="J385" s="7">
         <v>5.51</v>
       </c>
-      <c r="K385" s="21"/>
+      <c r="K385" s="24"/>
     </row>
     <row r="386" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="s">
@@ -13842,7 +13839,7 @@
       <c r="D386" s="3">
         <v>38.1</v>
       </c>
-      <c r="E386" s="20"/>
+      <c r="E386" s="23"/>
       <c r="F386" s="4">
         <v>-0.3</v>
       </c>
@@ -13858,7 +13855,7 @@
       <c r="J386" s="4">
         <v>-10</v>
       </c>
-      <c r="K386" s="21" t="s">
+      <c r="K386" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13872,7 +13869,7 @@
       <c r="D387" s="3">
         <v>38.299999999999997</v>
       </c>
-      <c r="E387" s="20"/>
+      <c r="E387" s="23"/>
       <c r="F387" s="4">
         <v>-0.78</v>
       </c>
@@ -13888,7 +13885,7 @@
       <c r="J387" s="4">
         <v>-20.66</v>
       </c>
-      <c r="K387" s="21"/>
+      <c r="K387" s="24"/>
     </row>
     <row r="388" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
@@ -13900,7 +13897,7 @@
       <c r="D388" s="3">
         <v>348</v>
       </c>
-      <c r="E388" s="20"/>
+      <c r="E388" s="23"/>
       <c r="F388" s="4">
         <v>-7.1</v>
       </c>
@@ -13916,7 +13913,7 @@
       <c r="J388" s="7">
         <v>98.3</v>
       </c>
-      <c r="K388" s="21" t="s">
+      <c r="K388" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13930,7 +13927,7 @@
       <c r="D389" s="3">
         <v>369.5</v>
       </c>
-      <c r="E389" s="20"/>
+      <c r="E389" s="23"/>
       <c r="F389" s="4">
         <v>-1.99</v>
       </c>
@@ -13946,7 +13943,7 @@
       <c r="J389" s="7">
         <v>39.61</v>
       </c>
-      <c r="K389" s="21"/>
+      <c r="K389" s="24"/>
     </row>
     <row r="390" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B390" s="1" t="s">
@@ -13958,7 +13955,7 @@
       <c r="D390" s="3">
         <v>432</v>
       </c>
-      <c r="E390" s="20"/>
+      <c r="E390" s="23"/>
       <c r="F390" s="4">
         <v>-2</v>
       </c>
@@ -13974,7 +13971,7 @@
       <c r="J390" s="7">
         <v>20</v>
       </c>
-      <c r="K390" s="21" t="s">
+      <c r="K390" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13988,7 +13985,7 @@
       <c r="D391" s="3">
         <v>436</v>
       </c>
-      <c r="E391" s="20"/>
+      <c r="E391" s="23"/>
       <c r="F391" s="4">
         <v>-0.46</v>
       </c>
@@ -14004,7 +14001,7 @@
       <c r="J391" s="7">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K391" s="21"/>
+      <c r="K391" s="24"/>
     </row>
     <row r="392" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="s">
@@ -14016,7 +14013,7 @@
       <c r="D392" s="3">
         <v>41.4</v>
       </c>
-      <c r="E392" s="20"/>
+      <c r="E392" s="23"/>
       <c r="F392" s="7">
         <v>0.05</v>
       </c>
@@ -14032,7 +14029,7 @@
       <c r="J392" s="7">
         <v>4.2</v>
       </c>
-      <c r="K392" s="21" t="s">
+      <c r="K392" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14046,7 +14043,7 @@
       <c r="D393" s="3">
         <v>42.3</v>
       </c>
-      <c r="E393" s="20"/>
+      <c r="E393" s="23"/>
       <c r="F393" s="7">
         <v>0.12</v>
       </c>
@@ -14062,7 +14059,7 @@
       <c r="J393" s="7">
         <v>11.29</v>
       </c>
-      <c r="K393" s="21"/>
+      <c r="K393" s="24"/>
     </row>
     <row r="394" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B394" s="1" t="s">
@@ -14074,7 +14071,7 @@
       <c r="D394" s="3">
         <v>0</v>
       </c>
-      <c r="E394" s="20"/>
+      <c r="E394" s="23"/>
       <c r="F394" s="4">
         <v>-5</v>
       </c>
@@ -14090,7 +14087,7 @@
       <c r="J394" s="4">
         <v>-95</v>
       </c>
-      <c r="K394" s="21" t="s">
+      <c r="K394" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14104,7 +14101,7 @@
       <c r="D395" s="3">
         <v>0</v>
       </c>
-      <c r="E395" s="20"/>
+      <c r="E395" s="23"/>
       <c r="F395" s="4">
         <v>-0.73</v>
       </c>
@@ -14120,7 +14117,7 @@
       <c r="J395" s="4">
         <v>-12.18</v>
       </c>
-      <c r="K395" s="21"/>
+      <c r="K395" s="24"/>
     </row>
     <row r="396" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
@@ -14132,7 +14129,7 @@
       <c r="D396" s="3">
         <v>0.86</v>
       </c>
-      <c r="E396" s="20"/>
+      <c r="E396" s="23"/>
       <c r="F396" s="3">
         <v>0</v>
       </c>
@@ -14148,7 +14145,7 @@
       <c r="J396" s="7">
         <v>0.02</v>
       </c>
-      <c r="K396" s="21" t="s">
+      <c r="K396" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14162,7 +14159,7 @@
       <c r="D397" s="3">
         <v>0.86</v>
       </c>
-      <c r="E397" s="20"/>
+      <c r="E397" s="23"/>
       <c r="F397" s="3">
         <v>0</v>
       </c>
@@ -14178,7 +14175,7 @@
       <c r="J397" s="7">
         <v>2.63</v>
       </c>
-      <c r="K397" s="21"/>
+      <c r="K397" s="24"/>
     </row>
     <row r="398" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="s">
@@ -14190,7 +14187,7 @@
       <c r="D398" s="3">
         <v>66.599999999999994</v>
       </c>
-      <c r="E398" s="20"/>
+      <c r="E398" s="23"/>
       <c r="F398" s="4">
         <v>-0.4</v>
       </c>
@@ -14206,7 +14203,7 @@
       <c r="J398" s="3">
         <v>0</v>
       </c>
-      <c r="K398" s="21" t="s">
+      <c r="K398" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14220,7 +14217,7 @@
       <c r="D399" s="3">
         <v>68</v>
       </c>
-      <c r="E399" s="20"/>
+      <c r="E399" s="23"/>
       <c r="F399" s="4">
         <v>-0.6</v>
       </c>
@@ -14236,7 +14233,7 @@
       <c r="J399" s="3">
         <v>0</v>
       </c>
-      <c r="K399" s="21"/>
+      <c r="K399" s="24"/>
     </row>
     <row r="400" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
@@ -14248,7 +14245,7 @@
       <c r="D400" s="3">
         <v>63.25</v>
       </c>
-      <c r="E400" s="20"/>
+      <c r="E400" s="23"/>
       <c r="F400" s="7">
         <v>1.95</v>
       </c>
@@ -14264,7 +14261,7 @@
       <c r="J400" s="7">
         <v>5.85</v>
       </c>
-      <c r="K400" s="21" t="s">
+      <c r="K400" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14278,7 +14275,7 @@
       <c r="D401" s="3">
         <v>65.75</v>
       </c>
-      <c r="E401" s="20"/>
+      <c r="E401" s="23"/>
       <c r="F401" s="7">
         <v>3.09</v>
       </c>
@@ -14294,7 +14291,7 @@
       <c r="J401" s="7">
         <v>10.15</v>
       </c>
-      <c r="K401" s="21"/>
+      <c r="K401" s="24"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
@@ -14306,7 +14303,7 @@
       <c r="D402" s="3">
         <v>55.9</v>
       </c>
-      <c r="E402" s="20"/>
+      <c r="E402" s="23"/>
       <c r="F402" s="4">
         <v>-0.1</v>
       </c>
@@ -14322,7 +14319,7 @@
       <c r="J402" s="4">
         <v>-5.3</v>
       </c>
-      <c r="K402" s="21" t="s">
+      <c r="K402" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14336,7 +14333,7 @@
       <c r="D403" s="3">
         <v>57</v>
       </c>
-      <c r="E403" s="20"/>
+      <c r="E403" s="23"/>
       <c r="F403" s="4">
         <v>-0.18</v>
       </c>
@@ -14352,7 +14349,7 @@
       <c r="J403" s="4">
         <v>-8.75</v>
       </c>
-      <c r="K403" s="21"/>
+      <c r="K403" s="24"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
@@ -14364,7 +14361,7 @@
       <c r="D404" s="3">
         <v>89.2</v>
       </c>
-      <c r="E404" s="20"/>
+      <c r="E404" s="23"/>
       <c r="F404" s="4">
         <v>-0.2</v>
       </c>
@@ -14380,7 +14377,7 @@
       <c r="J404" s="7">
         <v>5.2</v>
       </c>
-      <c r="K404" s="21" t="s">
+      <c r="K404" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14394,7 +14391,7 @@
       <c r="D405" s="3">
         <v>90</v>
       </c>
-      <c r="E405" s="20"/>
+      <c r="E405" s="23"/>
       <c r="F405" s="4">
         <v>-0.22</v>
       </c>
@@ -14410,7 +14407,7 @@
       <c r="J405" s="7">
         <v>6.12</v>
       </c>
-      <c r="K405" s="21"/>
+      <c r="K405" s="24"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B406" s="1" t="s">
@@ -14422,7 +14419,7 @@
       <c r="D406" s="3">
         <v>86.2</v>
       </c>
-      <c r="E406" s="20"/>
+      <c r="E406" s="23"/>
       <c r="F406" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -14438,7 +14435,7 @@
       <c r="J406" s="7">
         <v>2.9</v>
       </c>
-      <c r="K406" s="21" t="s">
+      <c r="K406" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14452,7 +14449,7 @@
       <c r="D407" s="3">
         <v>87.6</v>
       </c>
-      <c r="E407" s="20"/>
+      <c r="E407" s="23"/>
       <c r="F407" s="7">
         <v>1.28</v>
       </c>
@@ -14468,7 +14465,7 @@
       <c r="J407" s="7">
         <v>3.6</v>
       </c>
-      <c r="K407" s="21"/>
+      <c r="K407" s="24"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
@@ -14480,7 +14477,7 @@
       <c r="D408" s="3">
         <v>111.5</v>
       </c>
-      <c r="E408" s="20"/>
+      <c r="E408" s="23"/>
       <c r="F408" s="3">
         <v>0</v>
       </c>
@@ -14496,7 +14493,7 @@
       <c r="J408" s="4">
         <v>-3</v>
       </c>
-      <c r="K408" s="21" t="s">
+      <c r="K408" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14510,7 +14507,7 @@
       <c r="D409" s="3">
         <v>113</v>
       </c>
-      <c r="E409" s="20"/>
+      <c r="E409" s="23"/>
       <c r="F409" s="3">
         <v>0</v>
       </c>
@@ -14526,7 +14523,7 @@
       <c r="J409" s="4">
         <v>-2.61</v>
       </c>
-      <c r="K409" s="21"/>
+      <c r="K409" s="24"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
@@ -14541,7 +14538,7 @@
       <c r="D410" s="8">
         <v>1790</v>
       </c>
-      <c r="E410" s="20"/>
+      <c r="E410" s="23"/>
       <c r="F410" s="4">
         <v>-20</v>
       </c>
@@ -14557,7 +14554,7 @@
       <c r="J410" s="4">
         <v>-350</v>
       </c>
-      <c r="K410" s="21" t="s">
+      <c r="K410" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14571,7 +14568,7 @@
       <c r="D411" s="8">
         <v>1825</v>
       </c>
-      <c r="E411" s="20"/>
+      <c r="E411" s="23"/>
       <c r="F411" s="4">
         <v>-1.1000000000000001</v>
       </c>
@@ -14587,7 +14584,7 @@
       <c r="J411" s="4">
         <v>-16.059999999999999</v>
       </c>
-      <c r="K411" s="21"/>
+      <c r="K411" s="24"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="s">
@@ -14599,7 +14596,7 @@
       <c r="D412" s="3">
         <v>38.5</v>
       </c>
-      <c r="E412" s="20"/>
+      <c r="E412" s="23"/>
       <c r="F412" s="4">
         <v>-0.1</v>
       </c>
@@ -14615,7 +14612,7 @@
       <c r="J412" s="7">
         <v>5.7</v>
       </c>
-      <c r="K412" s="21" t="s">
+      <c r="K412" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14629,7 +14626,7 @@
       <c r="D413" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="E413" s="20"/>
+      <c r="E413" s="23"/>
       <c r="F413" s="4">
         <v>-0.25</v>
       </c>
@@ -14645,7 +14642,7 @@
       <c r="J413" s="7">
         <v>17.329999999999998</v>
       </c>
-      <c r="K413" s="21"/>
+      <c r="K413" s="24"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
@@ -14657,7 +14654,7 @@
       <c r="D414" s="3">
         <v>250</v>
       </c>
-      <c r="E414" s="20"/>
+      <c r="E414" s="23"/>
       <c r="F414" s="4">
         <v>-5.5</v>
       </c>
@@ -14673,7 +14670,7 @@
       <c r="J414" s="7">
         <v>107.8</v>
       </c>
-      <c r="K414" s="21" t="s">
+      <c r="K414" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14687,7 +14684,7 @@
       <c r="D415" s="3">
         <v>257</v>
       </c>
-      <c r="E415" s="20"/>
+      <c r="E415" s="23"/>
       <c r="F415" s="4">
         <v>-2.15</v>
       </c>
@@ -14703,7 +14700,7 @@
       <c r="J415" s="7">
         <v>73.73</v>
       </c>
-      <c r="K415" s="21"/>
+      <c r="K415" s="24"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="19"/>
@@ -14716,7 +14713,7 @@
       <c r="D416" s="3">
         <v>56.7</v>
       </c>
-      <c r="E416" s="20"/>
+      <c r="E416" s="23"/>
       <c r="F416" s="4">
         <v>-0.3</v>
       </c>
@@ -14732,7 +14729,7 @@
       <c r="J416" s="4">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="K416" s="21" t="s">
+      <c r="K416" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14747,7 +14744,7 @@
       <c r="D417" s="3">
         <v>58.8</v>
       </c>
-      <c r="E417" s="20"/>
+      <c r="E417" s="23"/>
       <c r="F417" s="4">
         <v>-0.52</v>
       </c>
@@ -14763,7 +14760,7 @@
       <c r="J417" s="4">
         <v>-3.72</v>
       </c>
-      <c r="K417" s="21"/>
+      <c r="K417" s="24"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="19"/>
@@ -14776,7 +14773,7 @@
       <c r="D418" s="3">
         <v>0</v>
       </c>
-      <c r="E418" s="20"/>
+      <c r="E418" s="23"/>
       <c r="F418" s="4">
         <v>-0.2</v>
       </c>
@@ -14792,7 +14789,7 @@
       <c r="J418" s="7">
         <v>1.6</v>
       </c>
-      <c r="K418" s="21" t="s">
+      <c r="K418" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14807,7 +14804,7 @@
       <c r="D419" s="3">
         <v>0</v>
       </c>
-      <c r="E419" s="20"/>
+      <c r="E419" s="23"/>
       <c r="F419" s="4">
         <v>-0.76</v>
       </c>
@@ -14823,7 +14820,7 @@
       <c r="J419" s="7">
         <v>6.45</v>
       </c>
-      <c r="K419" s="21"/>
+      <c r="K419" s="24"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="19"/>
@@ -14836,7 +14833,7 @@
       <c r="D420" s="8">
         <v>1580</v>
       </c>
-      <c r="E420" s="20"/>
+      <c r="E420" s="23"/>
       <c r="F420" s="4">
         <v>-10</v>
       </c>
@@ -14852,7 +14849,7 @@
       <c r="J420" s="4">
         <v>-410</v>
       </c>
-      <c r="K420" s="21" t="s">
+      <c r="K420" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14867,7 +14864,7 @@
       <c r="D421" s="8">
         <v>1600</v>
       </c>
-      <c r="E421" s="20"/>
+      <c r="E421" s="23"/>
       <c r="F421" s="4">
         <v>-0.63</v>
       </c>
@@ -14883,7 +14880,7 @@
       <c r="J421" s="4">
         <v>-20.100000000000001</v>
       </c>
-      <c r="K421" s="21"/>
+      <c r="K421" s="24"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="19"/>
@@ -14896,7 +14893,7 @@
       <c r="D422" s="8">
         <v>7680</v>
       </c>
-      <c r="E422" s="20"/>
+      <c r="E422" s="23"/>
       <c r="F422" s="4">
         <v>-40</v>
       </c>
@@ -14912,7 +14909,7 @@
       <c r="J422" s="7">
         <v>820</v>
       </c>
-      <c r="K422" s="21" t="s">
+      <c r="K422" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14927,7 +14924,7 @@
       <c r="D423" s="8">
         <v>7740</v>
       </c>
-      <c r="E423" s="20"/>
+      <c r="E423" s="23"/>
       <c r="F423" s="4">
         <v>-0.52</v>
       </c>
@@ -14943,7 +14940,7 @@
       <c r="J423" s="7">
         <v>11.82</v>
       </c>
-      <c r="K423" s="21"/>
+      <c r="K423" s="24"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="19"/>
@@ -14956,7 +14953,7 @@
       <c r="D424" s="3">
         <v>404.9</v>
       </c>
-      <c r="E424" s="20"/>
+      <c r="E424" s="23"/>
       <c r="F424" s="7">
         <v>0.5</v>
       </c>
@@ -14972,7 +14969,7 @@
       <c r="J424" s="4">
         <v>-21.2</v>
       </c>
-      <c r="K424" s="21" t="s">
+      <c r="K424" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14987,7 +14984,7 @@
       <c r="D425" s="3">
         <v>409.8</v>
       </c>
-      <c r="E425" s="20"/>
+      <c r="E425" s="23"/>
       <c r="F425" s="7">
         <v>0.12</v>
       </c>
@@ -15003,7 +15000,7 @@
       <c r="J425" s="4">
         <v>-4.95</v>
       </c>
-      <c r="K425" s="21"/>
+      <c r="K425" s="24"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="19"/>
@@ -15016,7 +15013,7 @@
       <c r="D426" s="3">
         <v>0</v>
       </c>
-      <c r="E426" s="20"/>
+      <c r="E426" s="23"/>
       <c r="F426" s="3">
         <v>0</v>
       </c>
@@ -15032,7 +15029,7 @@
       <c r="J426" s="4">
         <v>-15</v>
       </c>
-      <c r="K426" s="21" t="s">
+      <c r="K426" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15047,7 +15044,7 @@
       <c r="D427" s="3">
         <v>0</v>
       </c>
-      <c r="E427" s="20"/>
+      <c r="E427" s="23"/>
       <c r="F427" s="3">
         <v>0</v>
       </c>
@@ -15063,10 +15060,424 @@
       <c r="J427" s="4">
         <v>-8.11</v>
       </c>
-      <c r="K427" s="21"/>
+      <c r="K427" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="426">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="K130:K131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="K158:K159"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="K172:K173"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="K174:K175"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="K168:K169"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="K182:K183"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="K176:K177"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="K178:K179"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="K194:K195"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="K196:K197"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="K198:K199"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="K188:K189"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="K190:K191"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="K192:K193"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="K206:K207"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="K208:K209"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="K210:K211"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="K200:K201"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="K202:K203"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="K204:K205"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="K218:K219"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="K220:K221"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="K222:K223"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="K212:K213"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="K214:K215"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="K216:K217"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="K230:K231"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="K232:K233"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="K234:K235"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="K224:K225"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="K226:K227"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="K228:K229"/>
+    <mergeCell ref="E242:E243"/>
+    <mergeCell ref="K242:K243"/>
+    <mergeCell ref="E244:E245"/>
+    <mergeCell ref="K244:K245"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="K246:K247"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="K236:K237"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="K238:K239"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="K240:K241"/>
+    <mergeCell ref="E254:E255"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="E256:E257"/>
+    <mergeCell ref="K256:K257"/>
+    <mergeCell ref="E258:E259"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="E248:E249"/>
+    <mergeCell ref="K248:K249"/>
+    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="K250:K251"/>
+    <mergeCell ref="E252:E253"/>
+    <mergeCell ref="K252:K253"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="K266:K267"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="K268:K269"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="K270:K271"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="K260:K261"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="K264:K265"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="K278:K279"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="K280:K281"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="K272:K273"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="K290:K291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="E294:E295"/>
+    <mergeCell ref="K294:K295"/>
+    <mergeCell ref="E284:E285"/>
+    <mergeCell ref="K284:K285"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="K286:K287"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="K288:K289"/>
+    <mergeCell ref="E302:E303"/>
+    <mergeCell ref="K302:K303"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="K306:K307"/>
+    <mergeCell ref="E296:E297"/>
+    <mergeCell ref="K296:K297"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="K300:K301"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="K314:K315"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="E318:E319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="E308:E309"/>
+    <mergeCell ref="K308:K309"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="K310:K311"/>
+    <mergeCell ref="E312:E313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="E326:E327"/>
+    <mergeCell ref="K326:K327"/>
+    <mergeCell ref="E328:E329"/>
+    <mergeCell ref="K328:K329"/>
+    <mergeCell ref="E330:E331"/>
+    <mergeCell ref="K330:K331"/>
+    <mergeCell ref="E320:E321"/>
+    <mergeCell ref="K320:K321"/>
+    <mergeCell ref="E322:E323"/>
+    <mergeCell ref="K322:K323"/>
+    <mergeCell ref="E324:E325"/>
+    <mergeCell ref="K324:K325"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="K338:K339"/>
+    <mergeCell ref="E340:E341"/>
+    <mergeCell ref="K340:K341"/>
+    <mergeCell ref="E342:E343"/>
+    <mergeCell ref="K342:K343"/>
+    <mergeCell ref="E332:E333"/>
+    <mergeCell ref="K332:K333"/>
+    <mergeCell ref="E334:E335"/>
+    <mergeCell ref="K334:K335"/>
+    <mergeCell ref="E336:E337"/>
+    <mergeCell ref="K336:K337"/>
+    <mergeCell ref="E350:E351"/>
+    <mergeCell ref="K350:K351"/>
+    <mergeCell ref="E352:E353"/>
+    <mergeCell ref="K352:K353"/>
+    <mergeCell ref="E354:E355"/>
+    <mergeCell ref="K354:K355"/>
+    <mergeCell ref="E344:E345"/>
+    <mergeCell ref="K344:K345"/>
+    <mergeCell ref="E346:E347"/>
+    <mergeCell ref="K346:K347"/>
+    <mergeCell ref="E348:E349"/>
+    <mergeCell ref="K348:K349"/>
+    <mergeCell ref="E362:E363"/>
+    <mergeCell ref="K362:K363"/>
+    <mergeCell ref="E364:E365"/>
+    <mergeCell ref="K364:K365"/>
+    <mergeCell ref="E366:E367"/>
+    <mergeCell ref="K366:K367"/>
+    <mergeCell ref="E356:E357"/>
+    <mergeCell ref="K356:K357"/>
+    <mergeCell ref="E358:E359"/>
+    <mergeCell ref="K358:K359"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="K360:K361"/>
+    <mergeCell ref="E374:E375"/>
+    <mergeCell ref="K374:K375"/>
+    <mergeCell ref="E376:E377"/>
+    <mergeCell ref="K376:K377"/>
+    <mergeCell ref="E378:E379"/>
+    <mergeCell ref="K378:K379"/>
+    <mergeCell ref="E368:E369"/>
+    <mergeCell ref="K368:K369"/>
+    <mergeCell ref="E370:E371"/>
+    <mergeCell ref="K370:K371"/>
+    <mergeCell ref="E372:E373"/>
+    <mergeCell ref="K372:K373"/>
+    <mergeCell ref="E386:E387"/>
+    <mergeCell ref="K386:K387"/>
+    <mergeCell ref="E388:E389"/>
+    <mergeCell ref="K388:K389"/>
+    <mergeCell ref="E390:E391"/>
+    <mergeCell ref="K390:K391"/>
+    <mergeCell ref="E380:E381"/>
+    <mergeCell ref="K380:K381"/>
+    <mergeCell ref="E382:E383"/>
+    <mergeCell ref="K382:K383"/>
+    <mergeCell ref="E384:E385"/>
+    <mergeCell ref="K384:K385"/>
+    <mergeCell ref="E398:E399"/>
+    <mergeCell ref="K398:K399"/>
+    <mergeCell ref="E400:E401"/>
+    <mergeCell ref="K400:K401"/>
+    <mergeCell ref="E402:E403"/>
+    <mergeCell ref="K402:K403"/>
+    <mergeCell ref="E392:E393"/>
+    <mergeCell ref="K392:K393"/>
+    <mergeCell ref="E394:E395"/>
+    <mergeCell ref="K394:K395"/>
+    <mergeCell ref="E396:E397"/>
+    <mergeCell ref="K396:K397"/>
+    <mergeCell ref="E410:E411"/>
+    <mergeCell ref="K410:K411"/>
+    <mergeCell ref="E412:E413"/>
+    <mergeCell ref="K412:K413"/>
+    <mergeCell ref="E414:E415"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="E404:E405"/>
+    <mergeCell ref="K404:K405"/>
+    <mergeCell ref="E406:E407"/>
+    <mergeCell ref="K406:K407"/>
+    <mergeCell ref="E408:E409"/>
+    <mergeCell ref="K408:K409"/>
     <mergeCell ref="E422:E423"/>
     <mergeCell ref="K422:K423"/>
     <mergeCell ref="E424:E425"/>
@@ -15079,420 +15490,6 @@
     <mergeCell ref="K418:K419"/>
     <mergeCell ref="E420:E421"/>
     <mergeCell ref="K420:K421"/>
-    <mergeCell ref="E410:E411"/>
-    <mergeCell ref="K410:K411"/>
-    <mergeCell ref="E412:E413"/>
-    <mergeCell ref="K412:K413"/>
-    <mergeCell ref="E414:E415"/>
-    <mergeCell ref="K414:K415"/>
-    <mergeCell ref="E404:E405"/>
-    <mergeCell ref="K404:K405"/>
-    <mergeCell ref="E406:E407"/>
-    <mergeCell ref="K406:K407"/>
-    <mergeCell ref="E408:E409"/>
-    <mergeCell ref="K408:K409"/>
-    <mergeCell ref="E398:E399"/>
-    <mergeCell ref="K398:K399"/>
-    <mergeCell ref="E400:E401"/>
-    <mergeCell ref="K400:K401"/>
-    <mergeCell ref="E402:E403"/>
-    <mergeCell ref="K402:K403"/>
-    <mergeCell ref="E392:E393"/>
-    <mergeCell ref="K392:K393"/>
-    <mergeCell ref="E394:E395"/>
-    <mergeCell ref="K394:K395"/>
-    <mergeCell ref="E396:E397"/>
-    <mergeCell ref="K396:K397"/>
-    <mergeCell ref="E386:E387"/>
-    <mergeCell ref="K386:K387"/>
-    <mergeCell ref="E388:E389"/>
-    <mergeCell ref="K388:K389"/>
-    <mergeCell ref="E390:E391"/>
-    <mergeCell ref="K390:K391"/>
-    <mergeCell ref="E380:E381"/>
-    <mergeCell ref="K380:K381"/>
-    <mergeCell ref="E382:E383"/>
-    <mergeCell ref="K382:K383"/>
-    <mergeCell ref="E384:E385"/>
-    <mergeCell ref="K384:K385"/>
-    <mergeCell ref="E374:E375"/>
-    <mergeCell ref="K374:K375"/>
-    <mergeCell ref="E376:E377"/>
-    <mergeCell ref="K376:K377"/>
-    <mergeCell ref="E378:E379"/>
-    <mergeCell ref="K378:K379"/>
-    <mergeCell ref="E368:E369"/>
-    <mergeCell ref="K368:K369"/>
-    <mergeCell ref="E370:E371"/>
-    <mergeCell ref="K370:K371"/>
-    <mergeCell ref="E372:E373"/>
-    <mergeCell ref="K372:K373"/>
-    <mergeCell ref="E362:E363"/>
-    <mergeCell ref="K362:K363"/>
-    <mergeCell ref="E364:E365"/>
-    <mergeCell ref="K364:K365"/>
-    <mergeCell ref="E366:E367"/>
-    <mergeCell ref="K366:K367"/>
-    <mergeCell ref="E356:E357"/>
-    <mergeCell ref="K356:K357"/>
-    <mergeCell ref="E358:E359"/>
-    <mergeCell ref="K358:K359"/>
-    <mergeCell ref="E360:E361"/>
-    <mergeCell ref="K360:K361"/>
-    <mergeCell ref="E350:E351"/>
-    <mergeCell ref="K350:K351"/>
-    <mergeCell ref="E352:E353"/>
-    <mergeCell ref="K352:K353"/>
-    <mergeCell ref="E354:E355"/>
-    <mergeCell ref="K354:K355"/>
-    <mergeCell ref="E344:E345"/>
-    <mergeCell ref="K344:K345"/>
-    <mergeCell ref="E346:E347"/>
-    <mergeCell ref="K346:K347"/>
-    <mergeCell ref="E348:E349"/>
-    <mergeCell ref="K348:K349"/>
-    <mergeCell ref="E338:E339"/>
-    <mergeCell ref="K338:K339"/>
-    <mergeCell ref="E340:E341"/>
-    <mergeCell ref="K340:K341"/>
-    <mergeCell ref="E342:E343"/>
-    <mergeCell ref="K342:K343"/>
-    <mergeCell ref="E332:E333"/>
-    <mergeCell ref="K332:K333"/>
-    <mergeCell ref="E334:E335"/>
-    <mergeCell ref="K334:K335"/>
-    <mergeCell ref="E336:E337"/>
-    <mergeCell ref="K336:K337"/>
-    <mergeCell ref="E326:E327"/>
-    <mergeCell ref="K326:K327"/>
-    <mergeCell ref="E328:E329"/>
-    <mergeCell ref="K328:K329"/>
-    <mergeCell ref="E330:E331"/>
-    <mergeCell ref="K330:K331"/>
-    <mergeCell ref="E320:E321"/>
-    <mergeCell ref="K320:K321"/>
-    <mergeCell ref="E322:E323"/>
-    <mergeCell ref="K322:K323"/>
-    <mergeCell ref="E324:E325"/>
-    <mergeCell ref="K324:K325"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="K314:K315"/>
-    <mergeCell ref="E316:E317"/>
-    <mergeCell ref="K316:K317"/>
-    <mergeCell ref="E318:E319"/>
-    <mergeCell ref="K318:K319"/>
-    <mergeCell ref="E308:E309"/>
-    <mergeCell ref="K308:K309"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="K310:K311"/>
-    <mergeCell ref="E312:E313"/>
-    <mergeCell ref="K312:K313"/>
-    <mergeCell ref="E302:E303"/>
-    <mergeCell ref="K302:K303"/>
-    <mergeCell ref="E304:E305"/>
-    <mergeCell ref="K304:K305"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="K306:K307"/>
-    <mergeCell ref="E296:E297"/>
-    <mergeCell ref="K296:K297"/>
-    <mergeCell ref="E298:E299"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="E300:E301"/>
-    <mergeCell ref="K300:K301"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="K290:K291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="K292:K293"/>
-    <mergeCell ref="E294:E295"/>
-    <mergeCell ref="K294:K295"/>
-    <mergeCell ref="E284:E285"/>
-    <mergeCell ref="K284:K285"/>
-    <mergeCell ref="E286:E287"/>
-    <mergeCell ref="K286:K287"/>
-    <mergeCell ref="E288:E289"/>
-    <mergeCell ref="K288:K289"/>
-    <mergeCell ref="E278:E279"/>
-    <mergeCell ref="K278:K279"/>
-    <mergeCell ref="E280:E281"/>
-    <mergeCell ref="K280:K281"/>
-    <mergeCell ref="E282:E283"/>
-    <mergeCell ref="K282:K283"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="K272:K273"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="E276:E277"/>
-    <mergeCell ref="K276:K277"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="K266:K267"/>
-    <mergeCell ref="E268:E269"/>
-    <mergeCell ref="K268:K269"/>
-    <mergeCell ref="E270:E271"/>
-    <mergeCell ref="K270:K271"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="K260:K261"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="K264:K265"/>
-    <mergeCell ref="E254:E255"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="E256:E257"/>
-    <mergeCell ref="K256:K257"/>
-    <mergeCell ref="E258:E259"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="K248:K249"/>
-    <mergeCell ref="E250:E251"/>
-    <mergeCell ref="K250:K251"/>
-    <mergeCell ref="E252:E253"/>
-    <mergeCell ref="K252:K253"/>
-    <mergeCell ref="E242:E243"/>
-    <mergeCell ref="K242:K243"/>
-    <mergeCell ref="E244:E245"/>
-    <mergeCell ref="K244:K245"/>
-    <mergeCell ref="E246:E247"/>
-    <mergeCell ref="K246:K247"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="K236:K237"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="K238:K239"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="K240:K241"/>
-    <mergeCell ref="E230:E231"/>
-    <mergeCell ref="K230:K231"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="K232:K233"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="K234:K235"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="K224:K225"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="K226:K227"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="K228:K229"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="K218:K219"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="K220:K221"/>
-    <mergeCell ref="E222:E223"/>
-    <mergeCell ref="K222:K223"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="K212:K213"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="K214:K215"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="K216:K217"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="K206:K207"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="K208:K209"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="K210:K211"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="K200:K201"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="K202:K203"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="K204:K205"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="K194:K195"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="K196:K197"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="K198:K199"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="K188:K189"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="K190:K191"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="K192:K193"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="K182:K183"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="K186:K187"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="K176:K177"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="K178:K179"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="K172:K173"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="K174:K175"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="K168:K169"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="K158:K159"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="K130:K131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B427">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -16055,13 +16052,13 @@
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" t="s">
         <v>616</v>
       </c>
     </row>
@@ -16764,7 +16761,7 @@
       <c r="D74" t="s">
         <v>653</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="22" t="s">
         <v>571</v>
       </c>
     </row>
@@ -17310,7 +17307,7 @@
       <c r="D113" t="s">
         <v>221</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="20" t="s">
         <v>550</v>
       </c>
     </row>
@@ -17330,7 +17327,7 @@
       <c r="G114" t="s">
         <v>222</v>
       </c>
-      <c r="I114" s="24" t="s">
+      <c r="I114" s="20" t="s">
         <v>551</v>
       </c>
     </row>
@@ -17952,7 +17949,7 @@
       <c r="D158" t="s">
         <v>318</v>
       </c>
-      <c r="F158" s="24" t="s">
+      <c r="F158" s="20" t="s">
         <v>476</v>
       </c>
     </row>
@@ -17972,7 +17969,7 @@
       <c r="G159" t="s">
         <v>314</v>
       </c>
-      <c r="I159" s="24" t="s">
+      <c r="I159" s="20" t="s">
         <v>477</v>
       </c>
     </row>
@@ -18717,7 +18714,7 @@
       <c r="C212" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D212" s="25" t="s">
+      <c r="D212" s="21" t="s">
         <v>621</v>
       </c>
       <c r="F212" t="s">
@@ -18755,7 +18752,7 @@
       <c r="F216" t="s">
         <v>468</v>
       </c>
-      <c r="G216" s="25" t="s">
+      <c r="G216" s="21" t="s">
         <v>621</v>
       </c>
     </row>
@@ -20453,7 +20450,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B24" t="s">
@@ -21960,7 +21957,7 @@
       <c r="A212" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B212" s="25" t="s">
+      <c r="B212" s="21" t="s">
         <v>621</v>
       </c>
     </row>
